--- a/auto/list/cisaga/list_mekarmukti.xlsx
+++ b/auto/list/cisaga/list_mekarmukti.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\bosv2\list\cisaga\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C091DB-B8E1-4385-AD1D-7CD265FB430D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="445">
   <si>
     <t>NO</t>
   </si>
@@ -46,1026 +41,1328 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>2024-09-01</t>
-  </si>
-  <si>
-    <t>ABDUL LATIF</t>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>MEMED</t>
+  </si>
+  <si>
+    <t>Cisagakolot</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>Mekarmukti</t>
+  </si>
+  <si>
+    <t>Keterbatasan transportasi umum, mempersulit mobilitas penduduk terutama dalam mencari pekerjaan dan pendidikan.</t>
+  </si>
+  <si>
+    <t>SURYATI</t>
   </si>
   <si>
     <t>Sembungjaya</t>
   </si>
   <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Kurangnya pengawasan dan regulasi dalam pasar tenaga kerja membuat banyak pekerja mengalami eksploitasi dan kondisi kerja yang tidak layak.</t>
+  </si>
+  <si>
+    <t>YAMIN</t>
+  </si>
+  <si>
     <t>005</t>
   </si>
   <si>
+    <t>Perluasan program pemberdayaan petani kecil akan membantu meningkatkan produksi pangan lokal.</t>
+  </si>
+  <si>
+    <t>AGNA ASKHIYA</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Tidak adanya jaringan pengaman sosial yang memadai, menyebabkan kelompok rentan sulit mendapatkan dukungan saat menghadapi kesulitan.</t>
+  </si>
+  <si>
+    <t>OOH MAMLU`AH</t>
+  </si>
+  <si>
+    <t>Batununggul</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Ketidakpastian ekonomi global mempengaruhi ekspor dan impor Indonesia, membuat perekonomian nasional rentan terhadap fluktuasi internasional.</t>
+  </si>
+  <si>
+    <t>CANDRA ADIA SAPUTRA</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Krisis ekonomi global menyebabkan daya beli masyarakat turun. Ini mengakibatkan penjualan usaha kecil menurun drastis, membahayakan keberlanjutan usaha.</t>
+  </si>
+  <si>
+    <t>IRFAN ALFANDY</t>
+  </si>
+  <si>
+    <t>Perlunya fasilitas pusat kebugaran komunitas untuk meningkatkan kesadaran akan gaya hidup sehat.</t>
+  </si>
+  <si>
+    <t>2025-02-02</t>
+  </si>
+  <si>
+    <t>RUSBANDI</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Keterbatasan akses kesehatan bagi masyarakat kecil membuat mereka rentan terhadap masalah kesehatan, yang berimbas pada kondisi ekonomi keluarga.</t>
+  </si>
+  <si>
+    <t>RASUDIN</t>
+  </si>
+  <si>
+    <t>Kurangnya dukungan pemerintah terhadap inovasi dan teknologi lokal menyebabkan banyak industri dalam negeri tidak mampu bersaing di pasar global.</t>
+  </si>
+  <si>
+    <t>BELA FAUZIAH</t>
+  </si>
+  <si>
+    <t>Jembatan yang tidak terawat, mengancam keselamatan transportasi dan mengisolasi wilayah.</t>
+  </si>
+  <si>
+    <t>OMAN</t>
+  </si>
+  <si>
+    <t>Kekurangan listrik di beberapa daerah terpencil menghambat aktivitas ekonomi dan keseharian warga, menurunkan kualitas hidup dan produktivitas mereka.</t>
+  </si>
+  <si>
+    <t>FATHAN</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>Pembangunan yang tidak merata membuat banyak desa tertinggal dalam hal infrastruktur, layanan kesehatan, dan pendidikan, memperparah ketimpangan sosial.</t>
+  </si>
+  <si>
+    <t>HERI</t>
+  </si>
+  <si>
+    <t>Kami mendukung adanya program kreativitas seni untuk meningkatkan apresiasi seni di kalangan masyarakat.</t>
+  </si>
+  <si>
+    <t>WIWI</t>
+  </si>
+  <si>
+    <t>kondisi jalan yang kumuh dan tidak terawat rawan-.</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>DEWI HERDIANTI</t>
+  </si>
+  <si>
+    <t>Perkembangan teknologi yang pesat menyebabkan banyak tenaga kerja kehilangan pekerjaan karena digantikan oleh mesin atau otomatisasi.</t>
+  </si>
+  <si>
+    <t>IWAN ABDUL HANAN</t>
+  </si>
+  <si>
+    <t>Kemacetan lalu lintas di kota besar menyebabkan banyak warga kehilangan waktu produktif dan meningkatkan biaya transportasi harian.</t>
+  </si>
+  <si>
+    <t>VIA SILVIA</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>Upah minimum yang tidak cukup untuk menutupi biaya hidup di kota besar, menyebabkan banyak pekerja hidup dalam kondisi yang memprihatinkan.</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RAFKHA PATHURROHMAN</t>
+  </si>
+  <si>
+    <t>Peningkatan keamanan di area bermain anak-anak dan taman umum di malam hari.</t>
+  </si>
+  <si>
+    <t>DENI NURAPRIANTO</t>
+  </si>
+  <si>
+    <t>Tingkat pengangguran yang tinggi di daerah pedesaan membuat banyak warga harus merantau ke kota besar untuk mencari pekerjaan yang layak.</t>
+  </si>
+  <si>
+    <t>LINDA LIDIA SARI</t>
+  </si>
+  <si>
+    <t>Pengurangan subsidi BBM mengakibatkan kenaikan biaya produksi dan distribusi, membuat harga barang-barang kebutuhan pokok semakin tinggi.</t>
+  </si>
+  <si>
+    <t>FIKRI MAULANA MALIK</t>
+  </si>
+  <si>
+    <t>Biaya sewa kios yang mahal menyulitkan pedagang kecil untuk bertahan, terutama di kota besar di mana harga sewa semakin tinggi.</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>ALWY MUIZ ABDURAHMAN</t>
+  </si>
+  <si>
     <t>002</t>
   </si>
   <si>
-    <t>Mekarmukti</t>
-  </si>
-  <si>
-    <t>Minimnya program pelatihan kerja dari pemerintah membuat banyak tenaga kerja tidak memiliki keterampilan yang dibutuhkan di pasar kerja saat ini.</t>
-  </si>
-  <si>
-    <t>INDRA IRAWAN</t>
-  </si>
-  <si>
-    <t>Cisagakolot</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>Permasalahan ketergantungan obat-obatan terlarang, merusak kesehatan dan stabilitas sosial di pedesaan.</t>
-  </si>
-  <si>
-    <t>TARKA</t>
-  </si>
-  <si>
-    <t>Batununggul</t>
+    <t>Kurangnya aksesibilitas bagi penyandang disabilitas, menghalangi partisipasi mereka dalam kehidupan sosial dan ekonomi lokal.</t>
+  </si>
+  <si>
+    <t>RENI OKTAVIANI</t>
+  </si>
+  <si>
+    <t>Banyaknya investasi ilegal atau bodong membuat banyak warga tertipu, menguras tabungan mereka, sehingga kondisi ekonomi semakin terpuruk.</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HANAN NAQIYYAH</t>
+  </si>
+  <si>
+    <t>Ketidaksetaraan pendapatan dan kesenjangan sosial yang semakin lebar, menciptakan keresahan di kalangan masyarakat.</t>
+  </si>
+  <si>
+    <t>RATIH PURWASIH</t>
+  </si>
+  <si>
+    <t>Program beasiswa pendidikan sangat dibutuhkan untuk membantu anak-anak muda di wilayah kami mengakses pendidikan tinggi.</t>
+  </si>
+  <si>
+    <t>MAYA KOMALASARI</t>
+  </si>
+  <si>
+    <t>Program penghijauan kota dapat memberikan manfaat jangka panjang bagi kesehatan dan keindahan lingkungan kami.</t>
+  </si>
+  <si>
+    <t>MASDUKI</t>
+  </si>
+  <si>
+    <t>Isolasi sosial, membuat masyarakat pedesaan merasa terpinggirkan dari perkembangan sosial dan budaya.</t>
+  </si>
+  <si>
+    <t>MILLA KAMILATUNNIDA</t>
+  </si>
+  <si>
+    <t>Pertumbuhan ekonomi yang tidak merata seringkali hanya dinikmati oleh segelintir elit, sementara sebagian besar masyarakat tetap hidup dalam kemiskinan.</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>ASEP SAEPUL UYUN</t>
+  </si>
+  <si>
+    <t>Jalan rusak parah, mengganggu kelancaran lalu lintas dan merusak kendaraan.</t>
+  </si>
+  <si>
+    <t>ROMLAH</t>
+  </si>
+  <si>
+    <t>Dukungan bagi program pencegahan kekerasan dalam rumah tangga dan perlindungan bagi korban.</t>
+  </si>
+  <si>
+    <t>AGAM ABDILLAH PRATAMA</t>
+  </si>
+  <si>
+    <t>Fasilitas jalan yang tidak terpelihara dengan baik, menghambat pertumbuhan ekonomi dan aksesibilitas penduduk.</t>
+  </si>
+  <si>
+    <t>IIS TRISNAWATI</t>
+  </si>
+  <si>
+    <t>Ketidaksetaraan gender yang masih ada dalam berbagai aspek kehidupan, termasuk di tempat kerja dan dalam lingkungan domestik.</t>
+  </si>
+  <si>
+    <t>SELA</t>
+  </si>
+  <si>
+    <t>Keamanan menjadi perhatian utama. Kami membutuhkan peningkatan patroli keamanan dan kerjasama dengan kepolisian untuk mengatasi peningkatan kejahatan di lingkungan kami.</t>
+  </si>
+  <si>
+    <t>RIYAH SITI HAWARIYAH</t>
+  </si>
+  <si>
+    <t>Peningkatan infrastruktur untuk mendukung pengembangan industri kecil dan menengah lokal.</t>
+  </si>
+  <si>
+    <t>ADILA FAUZIAH KARIMAH</t>
+  </si>
+  <si>
+    <t>Masalah kekerasan dalam rumah tangga, merusak hubungan interpersonal dan kesejahteraan keluarga.</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>IIN INAYAH</t>
+  </si>
+  <si>
+    <t>Kurangnya sarana transportasi umum, menyulitkan akses penduduk terhadap layanan penting.</t>
+  </si>
+  <si>
+    <t>SUYUDIN</t>
+  </si>
+  <si>
+    <t>Akses terhadap pendidikan berkualitas yang terbatas membuat banyak anak dari keluarga kurang mampu tidak bisa melanjutkan pendidikan ke jenjang yang lebih tinggi.</t>
+  </si>
+  <si>
+    <t>JUJU JUHAERIAH</t>
+  </si>
+  <si>
+    <t>Biaya pendidikan mahal, sulit bagi keluarga kurang mampu.</t>
+  </si>
+  <si>
+    <t>ENGKUS KUSNADI</t>
+  </si>
+  <si>
+    <t>Kami berharap ada program pelatihan digital untuk meningkatkan literasi teknologi di kalangan masyarakat kami.</t>
+  </si>
+  <si>
+    <t>FATHIR AHMAD ARIZKI</t>
+  </si>
+  <si>
+    <t>Kurangnya lapangan pekerjaan menyebabkan banyak orang memilih pekerjaan serabutan dengan pendapatan yang tidak menentu, mengganggu kestabilan ekonomi.</t>
+  </si>
+  <si>
+    <t>DIARA MAURA RIZQI</t>
+  </si>
+  <si>
+    <t>Kenaikan harga listrik berdampak pada biaya produksi bagi pengusaha kecil, yang akhirnya menaikkan harga jual produk. Hal ini menurunkan daya beli masyarakat.</t>
+  </si>
+  <si>
+    <t>ARSYA CAHAYA PUTRA</t>
+  </si>
+  <si>
+    <t>Penggunaan lahan yang tidak terencana menyebabkan kerusakan lingkungan dan kehilangan lahan produktif yang penting bagi pertanian.</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>PAHMI APRIZAL</t>
+  </si>
+  <si>
+    <t>Sosial di wilayah kami perlu diperhatikan, terutama bagi kaum lansia yang seringkali merasa terisolasi. Program sosial untuk menjaga kesejahteraan mereka sangat diharapkan.</t>
+  </si>
+  <si>
+    <t>SALSA SABILA NURAENI</t>
+  </si>
+  <si>
+    <t>Peningkatan pengelolaan limbah medis untuk menghindari risiko pencemaran lingkungan.</t>
+  </si>
+  <si>
+    <t>DENDRA RADITYA RAMADHAN</t>
+  </si>
+  <si>
+    <t>Banyaknya kasus kekerasan dalam rumah tangga yang tidak tertangani menunjukkan masalah sosial yang kompleks akibat tekanan ekonomi dan minimnya pendidikan.</t>
+  </si>
+  <si>
+    <t>NAZWA RANIA NUR ROHIM</t>
+  </si>
+  <si>
+    <t>Kami mendukung inisiatif untuk menciptakan ruang publik yang aman dan bersih bagi anak-anak dan keluarga.</t>
+  </si>
+  <si>
+    <t>MAMAT</t>
+  </si>
+  <si>
+    <t>Perlunya program pelatihan keterampilan soft skills untuk meningkatkan kemampuan interpersonal.</t>
+  </si>
+  <si>
+    <t>LUTFI IDAN RAMDANI</t>
+  </si>
+  <si>
+    <t>Kami membutuhkan perbaikan infrastruktur dasar seperti jalan dan saluran air. Musim hujan seringkali membawa banjir ke wilayah kami.</t>
+  </si>
+  <si>
+    <t>NANDA AMMAR PRAMADANA</t>
+  </si>
+  <si>
+    <t>Banyaknya pekerja informal tidak memiliki jaminan sosial, sehingga rentan saat menghadapi krisis ekonomi atau masalah kesehatan yang tiba-tiba.</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>AZAM HAMDALAH</t>
+  </si>
+  <si>
+    <t>Perlunya program pembangunan infrastruktur ramah lingkungan seperti jalur sepeda dan trotoar pejalan kaki.</t>
+  </si>
+  <si>
+    <t>DEWI SANTIKA</t>
+  </si>
+  <si>
+    <t>Program mentoring untuk membantu pemuda dalam merencanakan karir dan mencapai potensi penuh mereka.</t>
+  </si>
+  <si>
+    <t>CAHAYA ILHAM NASRULLOH</t>
+  </si>
+  <si>
+    <t>Sistem drainase yang tidak efektif, menyebabkan risiko banjir dan kerusakan infrastruktur pada musim hujan.</t>
+  </si>
+  <si>
+    <t>DILA SITI NURPADILAH</t>
+  </si>
+  <si>
+    <t>Peningkatan aksesibilitas fasilitas publik bagi penyandang disabilitas.</t>
+  </si>
+  <si>
+    <t>ROHAENI</t>
+  </si>
+  <si>
+    <t>Kurangnya pelatihan kerja dari pemerintah membuat banyak pekerja kurang memiliki keterampilan yang dibutuhkan pasar kerja, sehingga mereka sulit bersaing.</t>
+  </si>
+  <si>
+    <t>ARFAN NAUFAL RAFASYA</t>
+  </si>
+  <si>
+    <t>Pendapatan petani seringkali tidak sesuai dengan biaya produksi. Harga jual yang rendah sementara biaya produksi tinggi membuat mereka merugi.</t>
+  </si>
+  <si>
+    <t>AKMAL MARYANA</t>
+  </si>
+  <si>
+    <t>Masalah kesehatan mental yang diabaikan sering membuat produktivitas menurun, mengakibatkan dampak ekonomi jangka panjang pada keluarga.</t>
+  </si>
+  <si>
+    <t>2025-02-09</t>
+  </si>
+  <si>
+    <t>IDA NURHANIDAH</t>
+  </si>
+  <si>
+    <t>Minimnya fasilitas kesehatan di daerah terpencil membuat masyarakat sering terpaksa berhutang untuk biaya pengobatan, membebani ekonomi keluarga.</t>
+  </si>
+  <si>
+    <t>RIZQI SAPUTRA</t>
+  </si>
+  <si>
+    <t>Peningkatan ketersediaan fasilitas olahraga untuk mendukung gaya hidup aktif masyarakat.</t>
+  </si>
+  <si>
+    <t>ADE RESTU SHANDIKA</t>
+  </si>
+  <si>
+    <t>Kurangnya penyeberangan pejalan kaki dan fasilitas untuk penyandang disabilitas.</t>
+  </si>
+  <si>
+    <t>NANA SUGIANA</t>
+  </si>
+  <si>
+    <t>Kami meminta peningkatan keamanan di sekitar perumahan kami. Beberapa insiden kecil terjadi dan membuat kami khawatir akan keselamatan keluarga kami.</t>
+  </si>
+  <si>
+    <t>SYA'BANI JULIANA</t>
+  </si>
+  <si>
+    <t>Program pelatihan kebersihan dan sanitasi harus diperkenalkan untuk meningkatkan kesadaran akan kebersihan lingkungan.</t>
+  </si>
+  <si>
+    <t>RAFLI SYAKIR HERMAWAN</t>
+  </si>
+  <si>
+    <t>Disparitas ekonomi antara wilayah barat dan timur Indonesia menyebabkan ketidakmerataan pembangunan dan kesenjangan kesejahteraan yang mencolok.</t>
+  </si>
+  <si>
+    <t>MUHAMAD ZAMZAM MUBAROK</t>
+  </si>
+  <si>
+    <t>Akses modal yang sulit bagi usaha kecil dan menengah membuat mereka kesulitan untuk berkembang dan bersaing dengan perusahaan besar.</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>YAYAT</t>
+  </si>
+  <si>
+    <t>Dukungan untuk pengembangan pertanian lokal akan membantu memperkuat ketahanan pangan komunitas kami.</t>
+  </si>
+  <si>
+    <t>MAE NURHAYATI</t>
+  </si>
+  <si>
+    <t>Kondisi jembatan yang memburuk, mengancam keselamatan transportasi dan konektivitas antarwilayah.</t>
+  </si>
+  <si>
+    <t>WASIH</t>
+  </si>
+  <si>
+    <t>Kurangnya dukungan terhadap pertanian organik membuat petani kesulitan mengadopsi praktik pertanian yang lebih ramah lingkungan dan berkelanjutan.</t>
+  </si>
+  <si>
+    <t>MUHAMAD FALQI TAJUZZAMAN</t>
+  </si>
+  <si>
+    <t>Kurangnya fasilitas umum seperti transportasi dan sanitasi di banyak daerah membuat kehidupan sehari-hari warga sulit dan tidak efisien.</t>
+  </si>
+  <si>
+    <t>EDI</t>
+  </si>
+  <si>
+    <t>Krisis ekonomi global berdampak pada sektor industri lokal, mengurangi kesempatan kerja dan menyebabkan banyak pekerja di-PHK.</t>
+  </si>
+  <si>
+    <t>RIKI</t>
+  </si>
+  <si>
+    <t>Kurangnya sarana transportasi umum, membuat perjalanan menjadi sulit.</t>
+  </si>
+  <si>
+    <t>ABDUL MUGIS</t>
+  </si>
+  <si>
+    <t>Pengangguran di desa menyebabkan banyak orang bermigrasi ke kota, namun tanpa keahlian yang memadai, mereka akhirnya kesulitan mendapatkan pekerjaan.</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
+    <t>JIBRIL BARAKAH</t>
+  </si>
+  <si>
+    <t>Ketidakpastian hukum dalam dunia usaha membuat banyak pengusaha kecil dan menengah ragu untuk mengembangkan bisnis mereka lebih lanjut.</t>
+  </si>
+  <si>
+    <t>TARWITI</t>
+  </si>
+  <si>
+    <t>Lapangan kerja yang tersedia seringkali tidak sesuai dengan kualifikasi pendidikan sehingga banyak lulusan universitas menganggur atau bekerja tidak sesuai bidangnya.</t>
+  </si>
+  <si>
+    <t>SAMSIAH</t>
+  </si>
+  <si>
+    <t>Program edukasi tentang bahaya narkoba dan cara mencegahnya harus diperkenalkan di komunitas kami.</t>
+  </si>
+  <si>
+    <t>TRI APRILIANI</t>
+  </si>
+  <si>
+    <t>Program pengelolaan air yang berkelanjutan untuk mengatasi masalah ketersediaan air di musim kemarau.</t>
+  </si>
+  <si>
+    <t>NANANG KUSDIANA</t>
+  </si>
+  <si>
+    <t>Kolaborasi antarwarga perlu ditingkatkan untuk membangun rasa solidaritas dan kebersamaan di komunitas kami.</t>
+  </si>
+  <si>
+    <t>DIAN KUSDIANTO</t>
+  </si>
+  <si>
+    <t>Keterbatasan akses terhadap layanan pernikahan dan keluarga, mempengaruhi kestabilan rumah tangga.</t>
+  </si>
+  <si>
+    <t>SURYA SAPUTRA INDAH</t>
+  </si>
+  <si>
+    <t>Sistem pendidikan yang tidak merata dan kurang berkualitas, menghambat kemajuan sosial dan ekonomi bagi sebagian masyarakat.</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>ANISA PUTRI MARWAH</t>
+  </si>
+  <si>
+    <t>Keamanan jalan di sekitar sekolah harus ditingkatkan. Kami merasa khawatir dengan keselamatan anak-anak kami saat pergi dan pulang sekolah.</t>
+  </si>
+  <si>
+    <t>MUHAMMAD LUTHFI AL-MUNAWAR</t>
+  </si>
+  <si>
+    <t>Tingkat perceraian yang tinggi di beberapa daerah terkait dengan tekanan ekonomi yang membuat kehidupan rumah tangga menjadi tidak harmonis.</t>
+  </si>
+  <si>
+    <t>FAHMI AWALUDIN</t>
+  </si>
+  <si>
+    <t>Perlindungan terhadap hak-hak anak perlu diprioritaskan. Kami ingin melihat keamanan dan kesejahteraan anak-anak diutamakan.</t>
+  </si>
+  <si>
+    <t>AHMAD SHAKA ARKAN WIRATAMA</t>
+  </si>
+  <si>
+    <t>Banyak masyarakat yang merasa khawatir karena harga pangan yang sering berfluktuasi dan sulit diprediksi.</t>
+  </si>
+  <si>
+    <t>UUN NURJANAH</t>
+  </si>
+  <si>
+    <t>Pendidikan tentang pentingnya pola makan sehat dan gaya hidup aktif harus diintensifkan untuk mengatasi masalah kesehatan masyarakat.</t>
+  </si>
+  <si>
+    <t>RIMA RAHMIATUL HUSNA</t>
+  </si>
+  <si>
+    <t>Ketergantungan pada sektor pertanian tradisional yang tidak produktif menyebabkan pendapatan petani rendah dan tidak stabil, menghambat perkembangan ekonomi desa.</t>
+  </si>
+  <si>
+    <t>NAZWA AULIA PUTRI</t>
+  </si>
+  <si>
+    <t>Disparitas upah antara laki-laki dan perempuan menunjukkan ketidakadilan gender dalam pasar kerja yang perlu segera diatasi.</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>JUJU JULAEHA</t>
+  </si>
+  <si>
+    <t>Tidak ada tempat penampungan untuk hewan jalanan di jalan.</t>
+  </si>
+  <si>
+    <t>SELA MARSELINA</t>
+  </si>
+  <si>
+    <t>Kurangnya lapangan kerja dan peluang ekonomi yang memadai, meningkatkan tingkat pengangguran dan ketidakpastian pekerjaan.</t>
+  </si>
+  <si>
+    <t>DEA APRILIANI</t>
+  </si>
+  <si>
+    <t>Program pemberdayaan perempuan akan membantu meningkatkan peran mereka dalam pengambilan keputusan di komunitas kami.</t>
+  </si>
+  <si>
+    <t>TARSIMI</t>
+  </si>
+  <si>
+    <t>Masalah gizi buruk yang masih tinggi di beberapa daerah menunjukkan kurangnya akses terhadap makanan bergizi dan pelayanan kesehatan yang memadai.</t>
+  </si>
+  <si>
+    <t>Pajak yang tinggi bagi UMKM membuat banyak usaha kecil kesulitan berkembang. Mereka membutuhkan insentif agar bisa bersaing dengan usaha besar.</t>
+  </si>
+  <si>
+    <t>SITI UMAYAH</t>
+  </si>
+  <si>
+    <t>Perlunya program pendidikan mengenai dampak perubahan iklim dan upaya mitigasi.</t>
+  </si>
+  <si>
+    <t>DIDIN HERDIANA</t>
+  </si>
+  <si>
+    <t>Ketergantungan pada impor membuat harga barang seringkali naik ketika nilai tukar melemah, menyebabkan beban pada masyarakat berpenghasilan rendah.</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>ADE DIAN MIFTAH AL FAUZI</t>
+  </si>
+  <si>
+    <t>Harga sembako yang fluktuatif membuat sulit untuk mengatur keuangan rumah tangga. Setiap kenaikan harga berdampak langsung pada pengeluaran harian.</t>
+  </si>
+  <si>
+    <t>TITIN SUHARTINI</t>
+  </si>
+  <si>
+    <t>Tingginya tingkat perceraian dan konflik rumah tangga, mempengaruhi stabilitas sosial di pedesaan.</t>
+  </si>
+  <si>
+    <t>RAFIF AFKARI</t>
+  </si>
+  <si>
+    <t>Banjir sering terjadi, merusak tanaman dan infrastruktur kami.</t>
+  </si>
+  <si>
+    <t>ELSA RAHMA SALSABILA</t>
+  </si>
+  <si>
+    <t>Krisis pangan yang terjadi akibat perubahan iklim dan gagal panen membuat banyak petani kehilangan pendapatan dan masyarakat mengalami kelangkaan pangan.</t>
+  </si>
+  <si>
+    <t>RUSIH</t>
+  </si>
+  <si>
+    <t>Pengangguran semakin meningkat, terutama di kalangan anak muda yang sulit mendapatkan pekerjaan sesuai bidangnya. Ini menimbulkan ketidakpastian ekonomi bagi banyak keluarga.</t>
+  </si>
+  <si>
+    <t>HASBI ASYARI</t>
+  </si>
+  <si>
+    <t>Pemberdayaan anak muda melalui program pelatihan kewirausahaan akan menciptakan generasi yang kreatif dan mandiri.</t>
+  </si>
+  <si>
+    <t>LIFIA SALTIYANA DEWI</t>
+  </si>
+  <si>
+    <t>Kesenjangan digital antara daerah perkotaan dan pedesaan menghambat pertumbuhan ekonomi yang inklusif dan merata di seluruh Indonesia.</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>HJ CICIH WIARSIH</t>
+  </si>
+  <si>
+    <t>Tingkat kemiskinan yang masih tinggi di berbagai daerah menunjukkan masih banyak warga yang hidup di bawah garis kemiskinan dan kesulitan memenuhi kebutuhan dasar.</t>
+  </si>
+  <si>
+    <t>MUHAMAD AAM ROMDONI</t>
+  </si>
+  <si>
+    <t>Program pemberdayaan perempuan dalam bisnis dan kewirausahaan.</t>
+  </si>
+  <si>
+    <t>MUTAKIN</t>
+  </si>
+  <si>
+    <t>Kualitas infrastruktur yang rendah di daerah terpencil membuat akses transportasi dan distribusi barang menjadi sulit dan mahal, mempengaruhi harga barang kebutuhan.</t>
+  </si>
+  <si>
+    <t>DEWI</t>
+  </si>
+  <si>
+    <t>Tidak adanya fasilitas penyeberangan untuk hewan di jalan raya.</t>
+  </si>
+  <si>
+    <t>SITI SARAH</t>
+  </si>
+  <si>
+    <t>Kurangnya tempat pembuangan sampah, mengakibatkan pencemaran lingkungan.</t>
+  </si>
+  <si>
+    <t>RAIS AFHAM HASDI</t>
+  </si>
+  <si>
+    <t>Penghasilan pekerja migran tidak menentu, seringkali dipotong biaya agen, dan tanpa perlindungan yang memadai di negara tujuan, memperburuk kondisi ekonomi keluarga.</t>
+  </si>
+  <si>
+    <t>OJO</t>
+  </si>
+  <si>
+    <t>Kurangnya program pelatihan keterampilan, membatasi kemajuan karier kami.</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>MUHAMAD ZAKI ALHASANI</t>
+  </si>
+  <si>
+    <t>Peningkatan kualitas air sungai dan sungai di sekitar wilayah kami.</t>
+  </si>
+  <si>
+    <t>SARIP HIDAYATULOH</t>
+  </si>
+  <si>
+    <t>Kekurangan tenaga medis di daerah terpencil membuat layanan kesehatan tidak optimal dan banyak warga tidak mendapatkan perawatan yang mereka butuhkan.</t>
+  </si>
+  <si>
+    <t>HENDRI AGUSTIANSAH</t>
+  </si>
+  <si>
+    <t>Masalah keamanan dan kriminalitas, mengganggu kedamaian dan kesejahteraan masyarakat pedesaan.</t>
+  </si>
+  <si>
+    <t>ANIS AJIZAH</t>
+  </si>
+  <si>
+    <t>Kesenjangan digital menghambat banyak orang untuk memperoleh keterampilan baru yang relevan, menyebabkan mereka kesulitan bersaing di pasar kerja modern.</t>
+  </si>
+  <si>
+    <t>ANI NURAENI</t>
+  </si>
+  <si>
+    <t>Program pemerintah yang tidak tepat sasaran dan birokrasi yang berbelit menyebabkan bantuan sosial sering kali tidak sampai kepada yang berhak.</t>
+  </si>
+  <si>
+    <t>KOKO HARMOKO</t>
+  </si>
+  <si>
+    <t>Peningkatan keberlanjutan energi melalui pemanfaatan sumber energi terbarukan seperti tenaga surya.</t>
+  </si>
+  <si>
+    <t>MAMAN SARANO</t>
+  </si>
+  <si>
+    <t>Kurangnya lapangan kerja, menyebabkan tingginya tingkat pengangguran di pedesaan.</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>ZAELANI MUGNI</t>
+  </si>
+  <si>
+    <t>Isu diskriminasi rasial dan etnis yang terus muncul, menciptakan ketegangan dan konflik di antara berbagai kelompok masyarakat.</t>
+  </si>
+  <si>
+    <t>IIS ISRIANI</t>
+  </si>
+  <si>
+    <t>Kami berharap ada program bantuan bagi keluarga yang terkena dampak bencana alam untuk memulihkan kehidupan mereka.</t>
+  </si>
+  <si>
+    <t>ZAM ZAM MANARUL HIDAYAH</t>
+  </si>
+  <si>
+    <t>Program pelatihan keamanan siber untuk meningkatkan kesadaran tentang ancaman di dunia digital.</t>
+  </si>
+  <si>
+    <t>UNIZAH</t>
+  </si>
+  <si>
+    <t>Ketidakpastian hukum dalam dunia usaha membuat investor ragu untuk menanamkan modal, menghambat pertumbuhan ekonomi dan penciptaan lapangan kerja.</t>
+  </si>
+  <si>
+    <t>ISOH</t>
+  </si>
+  <si>
+    <t>Banyaknya pekerja anak di sektor informal menunjukkan masalah kemiskinan yang membuat anak-anak harus bekerja untuk membantu ekonomi keluarga.</t>
+  </si>
+  <si>
+    <t>SAEPUL AJIZ</t>
+  </si>
+  <si>
+    <t>Pasokan air tidak terjamin, meningkatkan risiko kekurangan air bersih dan sanitasi yang buruk.</t>
+  </si>
+  <si>
+    <t>JAMAL ABDUL NASIR</t>
+  </si>
+  <si>
+    <t>Kendaraan parkir sembarangan di jalan, menyebabkan kemacetan dan kekacauan.</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>AAS AS-ARI</t>
+  </si>
+  <si>
+    <t>Marka jalan yang pudar atau tidak terlihat jelas, meningkatkan risiko kecelakaan.</t>
+  </si>
+  <si>
+    <t>HOLIH</t>
+  </si>
+  <si>
+    <t>Banyak warga yang tidak memiliki akses ke pendidikan finansial, membuat mereka mudah tertipu investasi bodong atau pengelolaan keuangan yang kurang baik.</t>
+  </si>
+  <si>
+    <t>WAHYUMIN</t>
+  </si>
+  <si>
+    <t>Kami berharap adanya program perbaikan dan pemeliharaan sarana olahraga yang sudah ada di wilayah kami.</t>
+  </si>
+  <si>
+    <t>S. HIDAYAT</t>
+  </si>
+  <si>
+    <t>Kurangnya lapangan pekerjaan di daerah menyebabkan banyak penduduk usia produktif menganggur atau terpaksa bekerja di sektor informal dengan penghasilan minim.</t>
+  </si>
+  <si>
+    <t>MUMU AMIRUL MU'MIN</t>
+  </si>
+  <si>
+    <t>Kesenjangan ekonomi semakin terasa karena distribusi sumber daya yang tidak merata, membuat daerah tertinggal sulit mengejar pembangunan.</t>
+  </si>
+  <si>
+    <t>UKAYAH</t>
+  </si>
+  <si>
+    <t>Keterbatasan akses ke bank dan layanan keuangan, menghambat pertumbuhan ekonomi.</t>
+  </si>
+  <si>
+    <t>FARHAN PRATAMA</t>
+  </si>
+  <si>
+    <t>Layanan telekomunikasi yang tidak memadai, membatasi akses informasi dan kesempatan ekonomi.</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>NUNUNG NURHAETI</t>
+  </si>
+  <si>
+    <t>Harga pupuk dan pestisida yang mahal, membebani petani kecil.</t>
+  </si>
+  <si>
+    <t>DEVIA MARTHA RISYAENI</t>
+  </si>
+  <si>
+    <t>Krisis lingkungan seperti banjir dan kekeringan merusak lahan pertanian. Hal ini berdampak langsung pada hasil panen dan pendapatan petani.</t>
+  </si>
+  <si>
+    <t>SUGENG PRAYITNO</t>
+  </si>
+  <si>
+    <t>Parkir liar yang menghalangi akses jalan dan mengurangi ruang untuk kendaraan.</t>
+  </si>
+  <si>
+    <t>WATMA</t>
+  </si>
+  <si>
+    <t>Dukungan untuk industri kreatif lokal, seperti kerajinan tangan dan seni rupa, akan membantu meningkatkan perekonomian seniman lokal.</t>
+  </si>
+  <si>
+    <t>ANA ZAKIAH NUR ALAM</t>
+  </si>
+  <si>
+    <t>Akses internet lambat atau tidak ada, menghambat akses informasi dan pendidikan.</t>
+  </si>
+  <si>
+    <t>WIRYAN DARUSALAM</t>
+  </si>
+  <si>
+    <t>Biaya transportasi yang tinggi untuk distribusi barang ke daerah terpencil menyebabkan harga kebutuhan pokok di daerah tersebut jauh lebih mahal.</t>
+  </si>
+  <si>
+    <t>ARNI PURNAMASARI</t>
+  </si>
+  <si>
+    <t>Isolasi dari layanan hiburan dan rekreasi, menyebabkan kebosanan dan kurangnya kegiatan positif.</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>SITI HALIMAH</t>
+  </si>
+  <si>
+    <t>Kurangnya perhatian pemerintah terhadap infrastruktur pedesaan, menyebabkan kemunduran.</t>
+  </si>
+  <si>
+    <t>SITI NURLELA</t>
+  </si>
+  <si>
+    <t>Kurangnya kesadaran akan isu-isu sosial, menghambat upaya pembangunan masyarakat yang inklusif.</t>
+  </si>
+  <si>
+    <t>HOERUDIN</t>
+  </si>
+  <si>
+    <t>Kualitas jaringan telekomunikasi rendah, menghambat akses informasi dan pertumbuhan ekonomi.</t>
+  </si>
+  <si>
+    <t>AGUS SATRIADI</t>
+  </si>
+  <si>
+    <t>Perlindungan lingkungan hidup harus menjadi prioritas utama. Kami membutuhkan langkah-langkah untuk melindungi habitat alami dan keanekaragaman hayati.</t>
+  </si>
+  <si>
+    <t>NABILA SHAQUEENA HUMAIRA</t>
+  </si>
+  <si>
+    <t>Banyaknya anak putus sekolah karena alasan ekonomi menunjukkan masalah serius dalam akses pendidikan yang merata dan terjangkau.</t>
+  </si>
+  <si>
+    <t>ANDI IRAWAN</t>
+  </si>
+  <si>
+    <t>Sulitnya mendapatkan akses ke layanan telekomunikasi, mengisolasi kami dari dunia luar.</t>
+  </si>
+  <si>
+    <t>SOMAD</t>
+  </si>
+  <si>
+    <t>Listrik sering mati, mengganggu kegiatan sehari-hari kami.</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>CUCU</t>
+  </si>
+  <si>
+    <t>Maraknya hutang online berakibat buruk pada kondisi ekonomi keluarga. Banyak yang terjerat bunga tinggi sehingga sulit melunasi hutang.</t>
+  </si>
+  <si>
+    <t>ZAENURI PAHRIN AZIZ</t>
+  </si>
+  <si>
+    <t>Pengembangan pariwisata berkelanjutan akan membantu mempromosikan potensi pariwisata lokal dan menciptakan lapangan kerja.</t>
+  </si>
+  <si>
+    <t>AHMAN</t>
+  </si>
+  <si>
+    <t>Kualitas pendidikan yang tidak merata membuat anak-anak di daerah terpencil sulit bersaing dengan anak-anak di kota besar dalam dunia kerja.</t>
+  </si>
+  <si>
+    <t>SITI MASAMAH</t>
+  </si>
+  <si>
+    <t>Kami juga menghadapi masalah sosial, terutama terkait dengan kurangnya akses pendidikan di wilayah ini. Banyak anak-anak yang tidak bisa mengakses pendidikan yang layak.</t>
+  </si>
+  <si>
+    <t>PENDI RUSPENDI</t>
+  </si>
+  <si>
+    <t>Minimnya jalur sepeda membuat sulit bagi pengendara sepeda.</t>
+  </si>
+  <si>
+    <t>LENI NURHIDAYANTI</t>
+  </si>
+  <si>
+    <t>Upah minimum rendah, sulit untuk hidup layak bagi warga.</t>
+  </si>
+  <si>
+    <t>MAMAH PATIMAH</t>
+  </si>
+  <si>
+    <t>Pekerjaan sulit dicari, pengangguran meningkat di wilayah ini.</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>TARDI</t>
+  </si>
+  <si>
+    <t>Tidak ada jalur khusus transportasi umum, menyebabkan kemacetan.</t>
+  </si>
+  <si>
+    <t>ANWAR</t>
+  </si>
+  <si>
+    <t>Kurangnya akses terhadap internet dan teknologi informasi di daerah terpencil membatasi peluang pendidikan dan ekonomi bagi warga di sana.</t>
+  </si>
+  <si>
+    <t>ATONG DEDI</t>
+  </si>
+  <si>
+    <t>Sarana kesehatan di wilayah kami perlu ditingkatkan. Akses ke puskesmas dan layanan kesehatan harus lebih mudah dijangkau oleh masyarakat.</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AL FAIZ</t>
+  </si>
+  <si>
+    <t>Krisis air bersih di beberapa daerah menyebabkan banyak warga kesulitan mendapatkan air untuk kebutuhan sehari-hari, mempengaruhi kesehatan dan produktivitas.</t>
+  </si>
+  <si>
+    <t>RENITA NUR AZIZAH</t>
+  </si>
+  <si>
+    <t>Budaya lokal kami, meskipun kaya, terkadang terabaikan. Kami ingin melihat lebih banyak acara budaya dan festival untuk mempromosikan keunikan kami.</t>
+  </si>
+  <si>
+    <t>FAHMI ILMI AWALI</t>
+  </si>
+  <si>
+    <t>Kualitas jalan pedesaan yang buruk, membatasi akses petani ke pasar dan meningkatkan biaya transportasi.</t>
+  </si>
+  <si>
+    <t>TARSIH</t>
+  </si>
+  <si>
+    <t>Keterbatasan akses terhadap layanan kesehatan berkualitas, membuat banyak orang kesulitan mendapatkan perawatan yang dibutuhkan.</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>ESO</t>
+  </si>
+  <si>
+    <t>Tingkat inflasi yang tinggi membuat nilai uang semakin menurun, mengurangi daya beli masyarakat dan memperburuk kondisi ekonomi mereka.</t>
+  </si>
+  <si>
+    <t>ELA</t>
+  </si>
+  <si>
+    <t>Drainase yang buruk, menyebabkan banjir dan kerusakan infrastruktur saat musim hujan.</t>
+  </si>
+  <si>
+    <t>DARMAN</t>
+  </si>
+  <si>
+    <t>Kurangnya perawatan rutin, membuat jalan semakin buruk.</t>
+  </si>
+  <si>
+    <t>ANDRI PURWANTO</t>
+  </si>
+  <si>
+    <t>Biaya pendidikan yang tinggi membuat banyak keluarga sulit menyekolahkan anak-anaknya. Hal ini mempersempit peluang ekonomi di masa depan.</t>
+  </si>
+  <si>
+    <t>KOMI</t>
+  </si>
+  <si>
+    <t>Harga sewa rumah dan tanah yang terus naik membuat masyarakat sulit memiliki tempat tinggal. Kondisi ini mengancam kestabilan ekonomi keluarga.</t>
+  </si>
+  <si>
+    <t>RUKMA</t>
+  </si>
+  <si>
+    <t>Pembangunan trotoar yang tidak merata dan berbahaya.</t>
+  </si>
+  <si>
+    <t>IRFAN SAEPULLAH</t>
+  </si>
+  <si>
+    <t>Harga kebutuhan pokok yang terus naik membuat banyak warga kesulitan memenuhi kebutuhan sehari-hari, terutama bagi mereka yang berpenghasilan rendah.</t>
+  </si>
+  <si>
+    <t>2025-02-24</t>
+  </si>
+  <si>
+    <t>MUSA</t>
+  </si>
+  <si>
+    <t>Tidak adanya jalur sepeda yang aman, menghambat pengembangan transportasi berkelanjutan.</t>
+  </si>
+  <si>
+    <t>ANGGIH SETIAWAN</t>
+  </si>
+  <si>
+    <t>Tingkat kejahatan yang tinggi di beberapa daerah merupakan cerminan dari masalah ekonomi dan sosial yang belum terselesaikan, seperti pengangguran dan kemiskinan.</t>
+  </si>
+  <si>
+    <t>AIRA PUSPITA SARI</t>
+  </si>
+  <si>
+    <t>Saya sebagai warga melaporkan permasalahan ekonomi di lingkungan kami. Banyak dari kami kesulitan mencari pekerjaan dan merasakan beban ekonomi yang berat.</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NOOR ABHIZAR</t>
+  </si>
+  <si>
+    <t>Program pemberdayaan masyarakat untuk meningkatkan partisipasi dalam pengambilan keputusan komunitas.</t>
+  </si>
+  <si>
+    <t>ERSYA TRIA NUGRAHA</t>
+  </si>
+  <si>
+    <t>Keamanan di wilayah kami juga perlu diperhatikan. Terjadi peningkatan kasus kriminalitas dan kami merasa perlu adanya peningkatan patroli keamanan.</t>
+  </si>
+  <si>
+    <t>NUNUNG KURNIAWATI</t>
+  </si>
+  <si>
+    <t>Kualitas jaringan telepon seluler buruk di beberapa area.</t>
+  </si>
+  <si>
+    <t>MU`IN</t>
+  </si>
+  <si>
+    <t>kendaraan umum yang sulit dijumpai di wilayah terpencil.</t>
+  </si>
+  <si>
+    <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>YUSUP</t>
+  </si>
+  <si>
+    <t>Kami mendukung adanya program konservasi satwa liar di wilayah alam sekitar kami.</t>
+  </si>
+  <si>
+    <t>SUSMIYATI</t>
+  </si>
+  <si>
+    <t>Dukungan bagi program rehabilitasi bagi mantan narapidana untuk memfasilitasi reintegrasi sosial.</t>
+  </si>
+  <si>
+    <t>DARKA</t>
+  </si>
+  <si>
+    <t>Kami perlu dukungan lebih lanjut dalam mengembangkan potensi pariwisata lokal. Ini dapat membantu meningkatkan ekonomi dan mengangkat citra wilayah kami.</t>
+  </si>
+  <si>
+    <t>DAHLIA</t>
+  </si>
+  <si>
+    <t>Persaingan usaha tidak sehat, usaha kecil sulit bertahan.</t>
+  </si>
+  <si>
+    <t>SAEPUL WAHID</t>
+  </si>
+  <si>
+    <t>Kami mendukung ide untuk membuat taman publik sebagai tempat rekreasi dan pertemuan sosial bagi warga.</t>
+  </si>
+  <si>
+    <t>ADENG</t>
+  </si>
+  <si>
+    <t>Ketergantungan pada sektor informal menyebabkan banyak pekerja tidak memiliki jaminan sosial atau keamanan kerja, membuat mereka rentan terhadap krisis ekonomi.</t>
+  </si>
+  <si>
+    <t>HERNAWATI</t>
+  </si>
+  <si>
+    <t>Kurangnya dukungan untuk industri kreatif lokal membuat banyak talenta muda kesulitan mengembangkan bakat mereka dan bersaing di pasar global.</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>NANA KOMARA</t>
   </si>
   <si>
     <t>Peningkatan aksesibilitas transportasi bagi penyandang disabilitas akan membantu memastikan inklusivitas masyarakat kami.</t>
   </si>
   <si>
-    <t>ADIFA FARIZA MUFIA</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>Kurangnya fasilitas umum seperti transportasi dan sanitasi di banyak daerah membuat kehidupan sehari-hari warga sulit dan tidak efisien.</t>
-  </si>
-  <si>
-    <t>FITRI AYANI</t>
-  </si>
-  <si>
-    <t>Kurangnya perhatian pemerintah terhadap infrastruktur pedesaan, menyebabkan kemunduran.</t>
-  </si>
-  <si>
-    <t>TOTO ADRIANTO</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>Akses terhadap pendidikan berkualitas yang terbatas membuat banyak anak dari keluarga kurang mampu tidak bisa melanjutkan pendidikan ke jenjang yang lebih tinggi.</t>
-  </si>
-  <si>
-    <t>NANDA FEBRIANA NURJAMAL</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>Sosial di lingkungan kami juga butuh perhatian lebih. Banyak keluarga yang kesulitan memenuhi kebutuhan sehari-hari, terutama mereka yang kurang mampu.</t>
-  </si>
-  <si>
-    <t>2024-09-02</t>
-  </si>
-  <si>
-    <t>RYAN TRI AGUNG</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses ke bank dan layanan keuangan, menghambat pertumbuhan ekonomi.</t>
-  </si>
-  <si>
-    <t>IMAN</t>
-  </si>
-  <si>
-    <t>Pembangunan trotoar yang tidak merata dan berbahaya.</t>
-  </si>
-  <si>
-    <t>ELIS SITI NURJANAH</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>Kami perlu dukungan lebih lanjut dalam mengembangkan potensi pariwisata lokal. Ini dapat membantu meningkatkan ekonomi dan mengangkat citra wilayah kami.</t>
-  </si>
-  <si>
-    <t>JEJEN JENI</t>
-  </si>
-  <si>
-    <t>Kurangnya dukungan untuk industri kreatif lokal membuat banyak talenta muda kesulitan mengembangkan bakat mereka dan bersaing di pasar global.</t>
-  </si>
-  <si>
-    <t>DIKI NURHIDAYAH</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>Isolasi sosial, membuat masyarakat pedesaan merasa terpinggirkan dari perkembangan sosial dan budaya.</t>
-  </si>
-  <si>
-    <t>ADE IKA ZAKIATUL MUSTAFIDAH</t>
+    <t>ABDUL HOLIK</t>
+  </si>
+  <si>
+    <t>Inisiatif untuk mengurangi penggunaan plastik sekali pakai dan menggantinya dengan alternatif ramah lingkungan.</t>
+  </si>
+  <si>
+    <t>FIKRI MAULIDAN</t>
+  </si>
+  <si>
+    <t>Program pelatihan untuk mengembangkan keterampilan teknologi bagi warga lanjut usia.</t>
+  </si>
+  <si>
+    <t>SUSAN CAHYATI</t>
+  </si>
+  <si>
+    <t>Kebutuhan internet untuk pendidikan dan pekerjaan seringkali tidak terpenuhi di daerah terpencil, membuat masyarakat tertinggal dalam kesempatan ekonomi.</t>
+  </si>
+  <si>
+    <t>YATI JUM'ATI SRI SUNDARI</t>
+  </si>
+  <si>
+    <t>Minimnya jaminan sosial untuk pekerja sektor informal menyebabkan mereka tidak memiliki perlindungan saat menghadapi situasi darurat atau pensiun.</t>
+  </si>
+  <si>
+    <t>ADILA AZZAHRA</t>
+  </si>
+  <si>
+    <t>Pasokan air yang tidak stabil, meningkatkan risiko krisis kesehatan dan kebersihan di masyarakat.</t>
+  </si>
+  <si>
+    <t>YOYON</t>
+  </si>
+  <si>
+    <t>Kurangnya sarana olahraga dan rekreasi, membuat generasi muda kurang aktif.</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>SUAMSAH</t>
+  </si>
+  <si>
+    <t>Keterbatasan akses ke pasar, sulit untuk menjual hasil pertanian kami.</t>
+  </si>
+  <si>
+    <t>NUR AZIZAH</t>
+  </si>
+  <si>
+    <t>Kurangnya akses terhadap layanan kesehatan yang terjangkau membuat banyak warga harus mengorbankan kesehatan mereka karena tidak mampu membayar biaya berobat.</t>
+  </si>
+  <si>
+    <t>CUNDA</t>
+  </si>
+  <si>
+    <t>Tingginya inflasi membuat harga barang-barang pokok naik, namun gaji masyarakat tetap, menyebabkan daya beli terus melemah.</t>
+  </si>
+  <si>
+    <t>IIS ISMAWATI</t>
+  </si>
+  <si>
+    <t>Ketidaksetaraan gender dalam partisipasi politik dan ekonomi, merugikan potensi masyarakat pedesaan secara keseluruhan.</t>
+  </si>
+  <si>
+    <t>ENDI JUNAEDI</t>
+  </si>
+  <si>
+    <t>Kemacetan lalu lintas yang parah, menyebabkan waktu tempuh yang lama.</t>
+  </si>
+  <si>
+    <t>ALIFAHIBATILLAH AHMAD</t>
   </si>
   <si>
     <t>Jalan tidak ramah lingkungan, tanpa pohon atau taman penyerap polusi.</t>
   </si>
   <si>
-    <t>AELIA</t>
-  </si>
-  <si>
-    <t>Pendidikan yang terbatas, sulit untuk mendapatkan akses pendidikan berkualitas.</t>
-  </si>
-  <si>
-    <t>2024-09-03</t>
-  </si>
-  <si>
-    <t>WARAH</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>Permasalahan kesejahteraan anak, seperti kurangnya nutrisi dan akses pendidikan yang memadai.</t>
-  </si>
-  <si>
-    <t>SUSI SRI NUARI RAHAYU</t>
-  </si>
-  <si>
-    <t>Pasokan air tidak terjamin, meningkatkan risiko kekurangan air bersih dan sanitasi yang buruk.</t>
-  </si>
-  <si>
-    <t>DIDI SUPRIADI</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>Parkir liar yang menghalangi akses jalan dan mengurangi ruang untuk kendaraan.</t>
-  </si>
-  <si>
-    <t>RIZKHA FEBRIANI</t>
-  </si>
-  <si>
-    <t>Kami membutuhkan perbaikan infrastruktur dasar seperti jalan dan saluran air. Musim hujan seringkali membawa banjir ke wilayah kami.</t>
-  </si>
-  <si>
-    <t>IMI</t>
-  </si>
-  <si>
-    <t>Kami berharap ada program pelatihan digital untuk meningkatkan literasi teknologi di kalangan masyarakat kami.</t>
-  </si>
-  <si>
-    <t>KANITA AMELIA</t>
-  </si>
-  <si>
-    <t>Harga pupuk dan pestisida yang mahal, membebani petani kecil.</t>
-  </si>
-  <si>
-    <t>KUSEN</t>
-  </si>
-  <si>
-    <t>Perubahan iklim yang tidak menentu membuat banyak petani mengalami gagal panen, mengurangi produksi pangan dan pendapatan mereka secara signifikan.</t>
-  </si>
-  <si>
-    <t>2024-09-04</t>
-  </si>
-  <si>
-    <t>HAMDULI</t>
-  </si>
-  <si>
-    <t>Ketersediaan air bersih yang minim, meningkatkan risiko penyakit.</t>
-  </si>
-  <si>
-    <t>MUHAMAD HILMI</t>
-  </si>
-  <si>
-    <t>Kurangnya perhatian terhadap isu lingkungan dan keberlanjutan, menciptakan ketidakpastian akan masa depan lingkungan hidup.</t>
-  </si>
-  <si>
-    <t>TUTI ROYANI, S.Pd.I</t>
-  </si>
-  <si>
-    <t>Tidak adanya dukungan sosial bagi kaum lanjut usia, meningkatkan risiko kesepian dan ketergantungan.</t>
-  </si>
-  <si>
-    <t>SILFA HAYATUL HUSNA</t>
-  </si>
-  <si>
-    <t>Minimnya akses terhadap kredit mikro bagi pengusaha kecil membuat mereka kesulitan untuk memulai atau mengembangkan usaha mereka.</t>
-  </si>
-  <si>
-    <t>NURHOLIPAH</t>
-  </si>
-  <si>
-    <t>Biaya transportasi yang tinggi untuk distribusi barang ke daerah terpencil menyebabkan harga kebutuhan pokok di daerah tersebut jauh lebih mahal.</t>
-  </si>
-  <si>
-    <t>SUKIRAH</t>
-  </si>
-  <si>
-    <t>Kami berharap ada program bantuan bagi keluarga yang terkena dampak bencana alam untuk memulihkan kehidupan mereka.</t>
-  </si>
-  <si>
-    <t>EMAY MARYATI</t>
-  </si>
-  <si>
-    <t>Jalan rusak parah, mengganggu kelancaran lalu lintas dan merusak kendaraan.</t>
-  </si>
-  <si>
-    <t>2024-09-05</t>
-  </si>
-  <si>
-    <t>IKIN MUNASIKIN</t>
-  </si>
-  <si>
-    <t>Pembangunan yang tidak merata membuat banyak desa tertinggal dalam hal infrastruktur, layanan kesehatan, dan pendidikan, memperparah ketimpangan sosial.</t>
-  </si>
-  <si>
-    <t>SUDIR</t>
-  </si>
-  <si>
-    <t>Kurangnya perawatan rutin, membuat jalan semakin buruk.</t>
-  </si>
-  <si>
-    <t>TETI HERLIANA</t>
-  </si>
-  <si>
-    <t>Tidak adanya jalur sepeda yang aman, menghambat pengembangan transportasi berkelanjutan.</t>
-  </si>
-  <si>
-    <t>WIWIN LAELASARI</t>
-  </si>
-  <si>
-    <t>Jalan berlubang yang berbahaya bagi pengendara sepeda motor dan pengguna jalan lainnya.</t>
-  </si>
-  <si>
-    <t>REPANSYAH</t>
-  </si>
-  <si>
-    <t>Inisiatif peningkatan kebersihan lingkungan sekitar sekolah untuk menciptakan lingkungan pembelajaran yang baik.</t>
-  </si>
-  <si>
-    <t>SYABIL MUHAMMAD DZAKIANDRA</t>
-  </si>
-  <si>
-    <t>Ketidakstabilan politik seringkali mengganggu iklim investasi dan pertumbuhan ekonomi, membuat investor ragu untuk menanamkan modal di Indonesia.</t>
-  </si>
-  <si>
-    <t>SAEFUDIN</t>
-  </si>
-  <si>
-    <t>Kami berharap adanya program untuk mengatasi masalah perumahan yang layak bagi warga yang kurang mampu.</t>
-  </si>
-  <si>
-    <t>2024-09-06</t>
-  </si>
-  <si>
-    <t>WATINI</t>
-  </si>
-  <si>
-    <t>Kesenjangan pendidikan, membatasi akses anak-anak pedesaan terhadap pendidikan berkualitas.</t>
-  </si>
-  <si>
-    <t>ESIN</t>
-  </si>
-  <si>
-    <t>Kurangnya penyeberangan pejalan kaki dan fasilitas untuk penyandang disabilitas.</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RIFKI HAIDAR</t>
+    <t>ATIK MUSTIKA RATU</t>
   </si>
   <si>
     <t>menurut $nama Banyak masyarakat yang merasa khawatir karena harga pangan yang sering berfluktuasi dan sulit diprediksi.</t>
   </si>
   <si>
-    <t>OPIK ROY TAUPIKILAH</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses ke fasilitas kesehatan, memperlambat penanganan darurat dan perawatan medis.</t>
-  </si>
-  <si>
-    <t>HENDRA SUHENDRA</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>Kurangnya keamanan dan pemeliharaan keamanan, meningkatkan tingkat kejahatan di daerah kami.</t>
-  </si>
-  <si>
-    <t>SOLEH</t>
-  </si>
-  <si>
-    <t>Program pemberdayaan perempuan akan membantu meningkatkan peran mereka dalam pengambilan keputusan di komunitas kami.</t>
-  </si>
-  <si>
-    <t>KARNAH</t>
-  </si>
-  <si>
-    <t>Kualitas infrastruktur yang rendah di daerah terpencil membuat akses transportasi dan distribusi barang menjadi sulit dan mahal, mempengaruhi harga barang kebutuhan.</t>
-  </si>
-  <si>
-    <t>2024-09-07</t>
-  </si>
-  <si>
-    <t>MASTIAH</t>
-  </si>
-  <si>
-    <t>Kurangnya penerangan jalan yang memadai, meningkatkan risiko kecelakaan di malam hari.</t>
-  </si>
-  <si>
-    <t>MUJIATUL UMAMAH</t>
-  </si>
-  <si>
-    <t>Keterbatasan transportasi umum, mempersulit mobilitas penduduk terutama dalam mencari pekerjaan dan pendidikan.</t>
-  </si>
-  <si>
-    <t>AMINI</t>
-  </si>
-  <si>
-    <t>Dukungan pemerintah untuk pengembangan seni dan kreativitas lokal akan sangat diapresiasi. Inisiatif ini dapat memberikan peluang baru bagi para seniman dan budayawan.</t>
-  </si>
-  <si>
-    <t>LILIS LISNAWATI</t>
-  </si>
-  <si>
-    <t>Minimnya program pemerintah untuk pengembangan keterampilan kerja menyebabkan banyak tenaga kerja tidak memiliki kemampuan yang relevan dengan kebutuhan industri.</t>
-  </si>
-  <si>
-    <t>MARNI SUMARNI</t>
-  </si>
-  <si>
-    <t>Biaya kesehatan yang mahal menyebabkan banyak keluarga kesulitan membayar pengobatan, terutama untuk penyakit kronis yang memerlukan perawatan jangka panjang.</t>
-  </si>
-  <si>
-    <t>TATANG JONI</t>
-  </si>
-  <si>
-    <t>Dukungan bagi program inklusivitas dan diversitas di tempat kerja untuk mendorong kesetaraan.</t>
-  </si>
-  <si>
-    <t>ESON</t>
-  </si>
-  <si>
-    <t>Program bantuan sosial yang tidak merata dan sering kali salah sasaran membuat banyak warga yang benar-benar membutuhkan tidak mendapatkan bantuan.</t>
-  </si>
-  <si>
-    <t>2024-09-08</t>
-  </si>
-  <si>
-    <t>IIS SOLIHAH</t>
-  </si>
-  <si>
-    <t>Penyediaan ruang terbuka hijau di perkotaan akan meningkatkan kualitas hidup dan kesejahteraan warga.</t>
-  </si>
-  <si>
-    <t>RASIDI</t>
-  </si>
-  <si>
-    <t>Sistem pendidikan yang tidak merata dan kurang berkualitas, menghambat kemajuan sosial dan ekonomi bagi sebagian masyarakat.</t>
-  </si>
-  <si>
-    <t>NAWAWI</t>
-  </si>
-  <si>
-    <t>Peningkatan ketersediaan fasilitas olahraga untuk mendukung gaya hidup aktif masyarakat.</t>
-  </si>
-  <si>
-    <t>DEWI</t>
-  </si>
-  <si>
-    <t>Program beasiswa pendidikan sangat dibutuhkan untuk membantu anak-anak muda di wilayah kami mengakses pendidikan tinggi.</t>
-  </si>
-  <si>
-    <t>LINDA APRILIANDA</t>
-  </si>
-  <si>
-    <t>Program penyuluhan kesehatan mental untuk mengurangi stigma dan meningkatkan pemahaman masyarakat.</t>
-  </si>
-  <si>
-    <t>ANIH</t>
-  </si>
-  <si>
-    <t>Kekurangan tenaga medis di daerah terpencil membuat layanan kesehatan tidak optimal dan banyak warga tidak mendapatkan perawatan yang mereka butuhkan.</t>
-  </si>
-  <si>
-    <t>LINDA MUTIA</t>
-  </si>
-  <si>
-    <t>Kurangnya sarana transportasi umum, menyulitkan akses penduduk terhadap layanan penting.</t>
-  </si>
-  <si>
-    <t>2024-09-09</t>
-  </si>
-  <si>
-    <t>ZAIDAN MUHAMMAD ARKANA</t>
-  </si>
-  <si>
-    <t>Kami mendukung inisiatif untuk melestarikan warisan arsitektur dan bangunan bersejarah di wilayah kami.</t>
-  </si>
-  <si>
-    <t>INA PURNAMA SARI</t>
-  </si>
-  <si>
-    <t>Upah minimum rendah, sulit untuk hidup layak bagi warga.</t>
-  </si>
-  <si>
-    <t>ERIS RISMAYANTI</t>
-  </si>
-  <si>
-    <t>Keamanan menjadi perhatian utama. Kami membutuhkan peningkatan patroli keamanan dan kerjasama dengan kepolisian untuk mengatasi peningkatan kejahatan di lingkungan kami.</t>
-  </si>
-  <si>
-    <t>FAHRIAWAN MAULIDAN NUGRAHA</t>
-  </si>
-  <si>
-    <t>Minimnya jaminan sosial untuk pekerja sektor informal menyebabkan mereka tidak memiliki perlindungan saat menghadapi situasi darurat atau pensiun.</t>
-  </si>
-  <si>
-    <t>HENDRI PRIATNA</t>
-  </si>
-  <si>
-    <t>Perlunya program pembangunan infrastruktur ramah lingkungan seperti jalur sepeda dan trotoar pejalan kaki.</t>
-  </si>
-  <si>
-    <t>SALMAN AL-FARIZI</t>
-  </si>
-  <si>
-    <t>Dukungan untuk industri kreatif lokal, seperti kerajinan tangan dan seni rupa, akan membantu meningkatkan perekonomian seniman lokal.</t>
-  </si>
-  <si>
-    <t>H. MUHAMAD SLAMET</t>
-  </si>
-  <si>
-    <t>Isolasi dari layanan hiburan dan rekreasi, menyebabkan kebosanan dan kurangnya kegiatan positif.</t>
-  </si>
-  <si>
-    <t>2024-09-10</t>
-  </si>
-  <si>
-    <t>JAKARIAL ANSOR</t>
-  </si>
-  <si>
-    <t>Program pengentasan kemiskinan harus difokuskan pada membantu keluarga yang masih hidup di bawah garis kemiskinan.</t>
-  </si>
-  <si>
-    <t>SAIROH</t>
-  </si>
-  <si>
-    <t>Program pemberdayaan generasi muda melalui kegiatan seni dan budaya.</t>
-  </si>
-  <si>
-    <t>NUNUNG NURAENI</t>
-  </si>
-  <si>
-    <t>Peningkatan aksesibilitas fasilitas publik bagi penyandang disabilitas.</t>
-  </si>
-  <si>
-    <t>MITA RAHMAWATI</t>
-  </si>
-  <si>
-    <t>Budaya lokal harus lebih dipromosikan agar tidak hilang. Kami ingin melihat kegiatan budaya lebih sering diadakan untuk mempertahankan warisan nenek moyang kami.</t>
-  </si>
-  <si>
-    <t>AHMAD MAULANA</t>
-  </si>
-  <si>
-    <t>Kami mendukung adanya program kreativitas seni untuk meningkatkan apresiasi seni di kalangan masyarakat.</t>
-  </si>
-  <si>
-    <t>M YUSUP</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses terhadap perumahan yang layak dan terjangkau, menyebabkan masalah perumahan bagi banyak keluarga.</t>
-  </si>
-  <si>
-    <t>RIFKI MAULANA</t>
-  </si>
-  <si>
-    <t>Ketidakpastian hukum dalam dunia usaha membuat investor ragu untuk menanamkan modal, menghambat pertumbuhan ekonomi dan penciptaan lapangan kerja.</t>
-  </si>
-  <si>
-    <t>2024-09-11</t>
-  </si>
-  <si>
-    <t>OGI NUGRAHA</t>
-  </si>
-  <si>
-    <t>Pasokan air tidak teratur, menyulitkan kebutuhan sehari-hari kami.</t>
-  </si>
-  <si>
-    <t>MELY FITRIA</t>
-  </si>
-  <si>
-    <t>Layanan kesehatan yang kurang memadai, sulit untuk mendapatkan perawatan medis.</t>
-  </si>
-  <si>
-    <t>MARWAN PURWANTO</t>
-  </si>
-  <si>
-    <t>Ketergantungan pada sektor pertanian tradisional yang tidak produktif menyebabkan pendapatan petani rendah dan tidak stabil, menghambat perkembangan ekonomi desa.</t>
-  </si>
-  <si>
-    <t>IWAN HERMAWAN</t>
-  </si>
-  <si>
-    <t>Peningkatan keamanan di area bermain anak-anak dan taman umum di malam hari.</t>
-  </si>
-  <si>
-    <t>KUSNI'AH</t>
-  </si>
-  <si>
-    <t>Program penghijauan kota dapat memberikan manfaat jangka panjang bagi kesehatan dan keindahan lingkungan kami.</t>
-  </si>
-  <si>
-    <t>SYEH AKBAR</t>
-  </si>
-  <si>
-    <t>Perluasan program pemberdayaan petani kecil akan membantu meningkatkan produksi pangan lokal.</t>
-  </si>
-  <si>
-    <t>HAERUDIN</t>
-  </si>
-  <si>
-    <t>Minimnya tempat parkir untuk kendaraan umum di tempat kami.</t>
-  </si>
-  <si>
-    <t>2024-09-12</t>
-  </si>
-  <si>
-    <t>ANIS NURNANINGSIH</t>
-  </si>
-  <si>
-    <t>Kualitas jalan pedesaan yang buruk, membatasi akses petani ke pasar dan meningkatkan biaya transportasi.</t>
-  </si>
-  <si>
-    <t>WASTIMI</t>
-  </si>
-  <si>
-    <t>Sosial di wilayah kami perlu diperhatikan, terutama bagi kaum lansia yang seringkali merasa terisolasi. Program sosial untuk menjaga kesejahteraan mereka sangat diharapkan.</t>
-  </si>
-  <si>
-    <t>DINI NURJAKIYAH</t>
-  </si>
-  <si>
-    <t>Program pemberdayaan masyarakat lokal dalam mengelola sumber daya alam untuk keberlanjutan lingkungan.</t>
-  </si>
-  <si>
-    <t>BUDI</t>
-  </si>
-  <si>
-    <t>Jalan rusak, menyulitkan mobilitas penduduk dan distribusi barang.</t>
-  </si>
-  <si>
-    <t>MAYA KOMALASARI</t>
-  </si>
-  <si>
-    <t>Banyak produk palsu, merugikan konsumen dan produsen asli.</t>
-  </si>
-  <si>
-    <t>MAKSUM ABDUL MANAP</t>
-  </si>
-  <si>
-    <t>Banjir sering terjadi, merusak tanaman dan infrastruktur kami.</t>
-  </si>
-  <si>
-    <t>LINA AGUS LINDA</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses terhadap teknologi dan informasi, memperlebar kesenjangan digital dan sosial.</t>
-  </si>
-  <si>
-    <t>2024-09-13</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SYAFIQ HAUZAN MUBAROK</t>
-  </si>
-  <si>
-    <t>Harga kebutuhan pokok yang terus naik membuat banyak warga kesulitan memenuhi kebutuhan sehari-hari, terutama bagi mereka yang berpenghasilan rendah.</t>
-  </si>
-  <si>
-    <t>SURYANA</t>
-  </si>
-  <si>
-    <t>Kondisi jalan pedesaan yang buruk, menghambat distribusi barang dan pertumbuhan sektor pertanian.</t>
-  </si>
-  <si>
-    <t>ALYA NURFITRIANI</t>
-  </si>
-  <si>
-    <t>Program pengembangan keterampilan teknologi informasi harus tersedia untuk semua lapisan masyarakat.</t>
-  </si>
-  <si>
-    <t>YUSUP BAHTIAR</t>
-  </si>
-  <si>
-    <t>Peningkatan pelayanan kesehatan mental di wilayah kami, termasuk akses ke konseling.</t>
-  </si>
-  <si>
-    <t>RAISA RAHMA DANTI</t>
-  </si>
-  <si>
-    <t>Dukungan bagi industri pertanian organik untuk meningkatkan kualitas dan keamanan makanan di komunitas kami.</t>
-  </si>
-  <si>
-    <t>IDAH SITI NURHAMIDAH</t>
-  </si>
-  <si>
-    <t>Kualitas jaringan telepon seluler buruk di beberapa area.</t>
-  </si>
-  <si>
-    <t>Saya sebagai warga melaporkan permasalahan ekonomi di lingkungan kami. Banyak dari kami kesulitan mencari pekerjaan dan merasakan beban ekonomi yang berat.</t>
-  </si>
-  <si>
-    <t>2024-09-14</t>
-  </si>
-  <si>
-    <t>SAR`AN</t>
-  </si>
-  <si>
-    <t>Pekerjaan sulit dicari, pengangguran meningkat di wilayah ini.</t>
-  </si>
-  <si>
-    <t>TOHA</t>
-  </si>
-  <si>
-    <t>Ketidakstabilan harga bahan bakar minyak membuat biaya transportasi naik, mengurangi daya beli masyarakat terutama yang bergantung pada angkutan umum.</t>
-  </si>
-  <si>
-    <t>RIAN MAULANA YUSUF</t>
-  </si>
-  <si>
-    <t>Peningkatan infrastruktur telekomunikasi akan memastikan akses internet yang cepat dan andal bagi semua warga.</t>
-  </si>
-  <si>
-    <t>H. M. SU`UD</t>
-  </si>
-  <si>
-    <t>Persaingan usaha tidak sehat, usaha kecil sulit bertahan.</t>
-  </si>
-  <si>
-    <t>TINI WATINI</t>
-  </si>
-  <si>
-    <t>Tingkat inflasi yang tinggi membuat nilai uang semakin menurun, mengurangi daya beli masyarakat dan memperburuk kondisi ekonomi mereka.</t>
-  </si>
-  <si>
-    <t>Minimnya jalur sepeda membuat sulit bagi pengendara sepeda.</t>
-  </si>
-  <si>
-    <t>MIFTAH PARID</t>
-  </si>
-  <si>
-    <t>Kurangnya dukungan pemerintah terhadap inovasi dan teknologi lokal menyebabkan banyak industri dalam negeri tidak mampu bersaing di pasar global.</t>
-  </si>
-  <si>
-    <t>2024-09-15</t>
-  </si>
-  <si>
-    <t>SINTA</t>
-  </si>
-  <si>
-    <t>Penggunaan lahan yang tidak terencana menyebabkan kerusakan lingkungan dan kehilangan lahan produktif yang penting bagi pertanian.</t>
-  </si>
-  <si>
-    <t>PAHMI HUSAENI</t>
-  </si>
-  <si>
-    <t>Masalah perumahan yang mahal di kota besar membuat banyak warga terpaksa tinggal di pemukiman kumuh dengan fasilitas yang minim dan tidak layak.</t>
-  </si>
-  <si>
-    <t>EHA JULAEHA</t>
-  </si>
-  <si>
-    <t>Kami meminta peningkatan keamanan di sekitar perumahan kami. Beberapa insiden kecil terjadi dan membuat kami khawatir akan keselamatan keluarga kami.</t>
-  </si>
-  <si>
-    <t>PANI HAMDANI</t>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>HADIMAH</t>
+  </si>
+  <si>
+    <t>Kebutuhan perluasan jalan tidak terpenuhi, menyebabkan kemacetan terus bertambah.</t>
+  </si>
+  <si>
+    <t>TOPIKUROHMAN</t>
   </si>
   <si>
     <t>Pencemaran lingkungan yang semakin parah akibat aktivitas industri tidak terkendali merugikan kesehatan warga dan mengurangi kualitas hidup.</t>
   </si>
   <si>
-    <t>UTIMAH</t>
-  </si>
-  <si>
-    <t>Biaya pendidikan mahal, sulit bagi keluarga kurang mampu.</t>
-  </si>
-  <si>
-    <t>MUHAMAD HASAN JAYA SAPUTRA</t>
-  </si>
-  <si>
-    <t>Lapangan kerja yang tersedia seringkali tidak sesuai dengan kualifikasi pendidikan sehingga banyak lulusan universitas menganggur atau bekerja tidak sesuai bidangnya.</t>
-  </si>
-  <si>
-    <t>SAONAH</t>
-  </si>
-  <si>
-    <t>Pemberdayaan anak muda melalui program pelatihan kewirausahaan akan menciptakan generasi yang kreatif dan mandiri.</t>
-  </si>
-  <si>
-    <t>2024-09-16</t>
-  </si>
-  <si>
-    <t>AMELIA TRESNA LESTARI</t>
-  </si>
-  <si>
-    <t>Kurangnya dukungan terhadap pertanian organik membuat petani kesulitan mengadopsi praktik pertanian yang lebih ramah lingkungan dan berkelanjutan.</t>
-  </si>
-  <si>
-    <t>DESI SARASTUTI</t>
-  </si>
-  <si>
-    <t>Akses terhadap layanan kesehatan mental yang minim menyebabkan banyak warga yang mengalami masalah psikologis tidak mendapatkan bantuan yang mereka butuhkan.</t>
-  </si>
-  <si>
-    <t>MUHAMAD HASBI ROMDONI</t>
-  </si>
-  <si>
-    <t>Masalah sanitasi yang buruk di daerah kumuh menyebabkan penyebaran penyakit dan menurunkan kualitas hidup warga yang tinggal di sana.</t>
-  </si>
-  <si>
-    <t>ATIK SINTIA</t>
-  </si>
-  <si>
-    <t>Listrik sering mati, mengganggu kegiatan sehari-hari kami.</t>
-  </si>
-  <si>
-    <t>SITI SWANCI DWI LESTARI</t>
-  </si>
-  <si>
-    <t>Tingginya tingkat perceraian dan konflik rumah tangga, mempengaruhi stabilitas sosial di pedesaan.</t>
-  </si>
-  <si>
-    <t>YOYOH DARYAH</t>
-  </si>
-  <si>
-    <t>Ketidaksetaraan pendapatan dan kesenjangan sosial yang semakin lebar, menciptakan keresahan di kalangan masyarakat.</t>
-  </si>
-  <si>
-    <t>IAH KORIAH</t>
-  </si>
-  <si>
-    <t>Isolasi sosial bagi penyandang disabilitas, memperparah ketidaksetaraan dan ketidakmampuan.</t>
-  </si>
-  <si>
-    <t>2024-09-17</t>
-  </si>
-  <si>
-    <t>AZKA AZFAR RABBANI</t>
-  </si>
-  <si>
-    <t>Dukungan bagi inisiatif pengembangan kawasan pedesaan untuk mendorong pertumbuhan ekonomi lokal.</t>
-  </si>
-  <si>
-    <t>MASAMAH</t>
-  </si>
-  <si>
-    <t>Jembatan yang tidak terawat, mengancam keselamatan transportasi dan mengisolasi wilayah.</t>
-  </si>
-  <si>
-    <t>DEA APRILIANI</t>
-  </si>
-  <si>
-    <t>Fluktuasi nilai tukar mata uang yang tidak stabil menyebabkan harga barang impor menjadi mahal, menambah beban masyarakat yang bergantung pada barang tersebut.</t>
-  </si>
-  <si>
-    <t>DIDI MULYADI</t>
-  </si>
-  <si>
-    <t>Kurangnya trotoar yang aman, mengancam keselamatan pejalan kaki.</t>
-  </si>
-  <si>
-    <t>SALSA SABILA NURAENI</t>
-  </si>
-  <si>
-    <t>Permasalahan budaya juga menjadi concern. Pentingnya pelestarian budaya lokal harus diimbangi dengan upaya perlindungan terhadap kearifan lokal yang terus terancam.</t>
-  </si>
-  <si>
-    <t>KEYSYA SAMHA ZAHIDAH</t>
-  </si>
-  <si>
-    <t>Sosialisasi mengenai pentingnya pelestarian lingkungan perlu ditingkatkan. Kami ingin lingkungan kami menjadi lebih bersih dan berkelanjutan.</t>
-  </si>
-  <si>
-    <t>IIP PAUZI LATIF</t>
-  </si>
-  <si>
-    <t>Peningkatan keberlanjutan energi melalui pemanfaatan sumber energi terbarukan seperti tenaga surya.</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>YONI AHMAD YANI</t>
-  </si>
-  <si>
-    <t>Kemacetan lalu lintas di kota besar menyebabkan banyak warga kehilangan waktu produktif dan meningkatkan biaya transportasi harian.</t>
-  </si>
-  <si>
-    <t>ACIM</t>
-  </si>
-  <si>
-    <t>Tidak ada jalur khusus transportasi umum, menyebabkan kemacetan.</t>
-  </si>
-  <si>
-    <t>SIDIK</t>
-  </si>
-  <si>
-    <t>Kami mendukung inisiatif untuk menciptakan ruang publik yang aman dan bersih bagi anak-anak dan keluarga.</t>
-  </si>
-  <si>
-    <t>EKA PRATAMA</t>
+    <t>SODIKIN</t>
+  </si>
+  <si>
+    <t>Inisiatif penanaman pohon dan pelestarian hutan untuk mengurangi dampak perubahan iklim.</t>
+  </si>
+  <si>
+    <t>ATIK SANTIKA</t>
   </si>
   <si>
     <t>Monopoli pasar oleh perusahaan besar membuat usaha kecil dan menengah sulit bersaing, mengurangi kesempatan mereka untuk berkembang dan menciptakan lapangan kerja.</t>
   </si>
   <si>
-    <t>ANINDIRA MYSHA FAUZIYAH</t>
-  </si>
-  <si>
-    <t>Tingkat kemiskinan yang masih tinggi di berbagai daerah menunjukkan masih banyak warga yang hidup di bawah garis kemiskinan dan kesulitan memenuhi kebutuhan dasar.</t>
-  </si>
-  <si>
-    <t>RUKMAN</t>
-  </si>
-  <si>
-    <t>Kami juga menghadapi masalah sosial, terutama terkait dengan kurangnya akses pendidikan di wilayah ini. Banyak anak-anak yang tidak bisa mengakses pendidikan yang layak.</t>
-  </si>
-  <si>
-    <t>UTIN</t>
-  </si>
-  <si>
-    <t>Ketidaksetaraan gender yang masih ada dalam berbagai aspek kehidupan, termasuk di tempat kerja dan dalam lingkungan domestik.</t>
-  </si>
-  <si>
-    <t>2024-09-19</t>
-  </si>
-  <si>
-    <t>SANI AULIA WATI</t>
-  </si>
-  <si>
-    <t>Jaringan listrik tidak stabil, sering terjadi pemadaman listrik yang mengganggu aktivitas sehari-hari.</t>
-  </si>
-  <si>
-    <t>NEVI NAVITA</t>
-  </si>
-  <si>
-    <t>Tingkat perceraian yang tinggi di beberapa daerah terkait dengan tekanan ekonomi yang membuat kehidupan rumah tangga menjadi tidak harmonis.</t>
-  </si>
-  <si>
-    <t>RAHMAWATI</t>
-  </si>
-  <si>
-    <t>Dukungan bagi program peningkatan literasi finansial di kalangan masyarakat kami.</t>
-  </si>
-  <si>
-    <t>ALMAHYRA SHANUM</t>
-  </si>
-  <si>
-    <t>Kualitas jaringan telekomunikasi rendah, menghambat akses informasi dan pertumbuhan ekonomi.</t>
-  </si>
-  <si>
-    <t>OOH</t>
-  </si>
-  <si>
-    <t>Perlindungan terhadap hak-hak anak perlu diprioritaskan. Kami ingin melihat keamanan dan kesejahteraan anak-anak diutamakan.</t>
-  </si>
-  <si>
-    <t>SITI SA`ADAH</t>
-  </si>
-  <si>
-    <t>Ketidakpastian hukum dalam dunia usaha membuat banyak pengusaha kecil dan menengah ragu untuk mengembangkan bisnis mereka lebih lanjut.</t>
-  </si>
-  <si>
-    <t>IYAH TARWIYATUL MUNAWAROH</t>
-  </si>
-  <si>
-    <t>Jalan tidak terlayani saat hujan, menyebabkan banjir dan genangan air.</t>
-  </si>
-  <si>
-    <t>2024-09-20</t>
-  </si>
-  <si>
-    <t>AAS AS-ARI</t>
-  </si>
-  <si>
-    <t>Ketidaksetaraan gender dalam partisipasi politik dan ekonomi, merugikan potensi masyarakat pedesaan secara keseluruhan.</t>
-  </si>
-  <si>
-    <t>TARSUM AHMAD HIDAYAT</t>
-  </si>
-  <si>
-    <t>Krisis air bersih di beberapa daerah menyebabkan banyak warga kesulitan mendapatkan air untuk kebutuhan sehari-hari, mempengaruhi kesehatan dan produktivitas.</t>
-  </si>
-  <si>
-    <t>Kurangnya akses terhadap internet dan teknologi informasi di daerah terpencil membatasi peluang pendidikan dan ekonomi bagi warga di sana.</t>
-  </si>
-  <si>
-    <t>TENI AGUSTININA</t>
-  </si>
-  <si>
-    <t>Kurangnya kesadaran akan isu-isu sosial, menghambat upaya pembangunan masyarakat yang inklusif.</t>
-  </si>
-  <si>
-    <t>ABI YAZID AL FARIDZI</t>
-  </si>
-  <si>
-    <t>Ketimpangan sosial dan ekonomi semakin besar, kesenjangan kaya-miskin.</t>
-  </si>
-  <si>
-    <t>HAFSHAH SYAFIYAH</t>
-  </si>
-  <si>
-    <t>Warga kami membutuhkan dukungan ekonomi untuk membuka usaha kecil-kecilan. Kami berharap ada program bantuan modal untuk meningkatkan perekonomian lokal.</t>
-  </si>
-  <si>
-    <t>LUTFI EKA SAPUTRA</t>
-  </si>
-  <si>
-    <t>Stigma sosial terhadap perempuan, membatasi kesempatan dan hak mereka dalam kehidupan sosial dan ekonomi.</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>RIFA'ATUSSHUFI</t>
-  </si>
-  <si>
-    <t>Kendaraan parkir sembarangan di jalan, menyebabkan kemacetan dan kekacauan.</t>
-  </si>
-  <si>
-    <t>DAFA IBNU HAFIDZ</t>
-  </si>
-  <si>
-    <t>Kami mendukung ide untuk membuat taman publik sebagai tempat rekreasi dan pertemuan sosial bagi warga.</t>
-  </si>
-  <si>
-    <t>PIHANA SAFITRI</t>
-  </si>
-  <si>
-    <t>Perlunya fasilitas pusat kebugaran komunitas untuk meningkatkan kesadaran akan gaya hidup sehat.</t>
-  </si>
-  <si>
-    <t>NIA KORINA</t>
-  </si>
-  <si>
-    <t>Krisis pangan yang terjadi akibat perubahan iklim dan gagal panen membuat banyak petani kehilangan pendapatan dan masyarakat mengalami kelangkaan pangan.</t>
-  </si>
-  <si>
-    <t>HENDRIYANA</t>
-  </si>
-  <si>
-    <t>Program edukasi tentang bahaya narkoba dan cara mencegahnya harus diperkenalkan di komunitas kami.</t>
-  </si>
-  <si>
-    <t>ROHANI</t>
-  </si>
-  <si>
-    <t>Program pemberdayaan masyarakat untuk meningkatkan partisipasi dalam pengambilan keputusan komunitas.</t>
-  </si>
-  <si>
-    <t>ALDI ALFIANSYAH</t>
-  </si>
-  <si>
-    <t>Ketidakpastian ekonomi global mempengaruhi ekspor dan impor Indonesia, membuat perekonomian nasional rentan terhadap fluktuasi internasional.</t>
-  </si>
-  <si>
-    <t>2024-09-22</t>
-  </si>
-  <si>
-    <t>MIFTAH FARID</t>
-  </si>
-  <si>
-    <t>Pentingnya pendidikan karakter perlu ditekankan lebih lanjut. Kami ingin melihat generasi muda kami tumbuh menjadi individu yang bertanggung jawab dan beretika.</t>
-  </si>
-  <si>
-    <t>MUNAH</t>
-  </si>
-  <si>
-    <t>Kurangnya investasi dalam sektor pendidikan membuat banyak sekolah kekurangan fasilitas dan tenaga pengajar berkualitas, mempengaruhi mutu pendidikan.</t>
-  </si>
-  <si>
-    <t>SITI SUKAESIH</t>
-  </si>
-  <si>
-    <t>Peningkatan keamanan transportasi umum akan memberikan kenyamanan bagi warga yang bergantung pada transportasi publik.</t>
+    <t>SAHRUL</t>
+  </si>
+  <si>
+    <t>Ketidakstabilan harga bahan bakar berdampak langsung pada biaya transportasi. Hal ini menambah beban bagi masyarakat kecil yang bergantung pada transportasi umum.</t>
+  </si>
+  <si>
+    <t>Program pengembangan kawasan industri kecil untuk mendukung pengusaha lokal.</t>
+  </si>
+  <si>
+    <t>HERI HERMAWAN</t>
+  </si>
+  <si>
+    <t>Keterbatasan akses terhadap layanan sosial, memperburuk kondisi kesejahteraan sosial masyarakat pedesaan.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1092,21 +1389,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -1396,16 +1685,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152:XFD214"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1457,7 +1749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1483,7 +1775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1494,13 +1786,13 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1509,7 +1801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1520,7 +1812,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -1535,7 +1827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1546,22 +1838,22 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1569,25 +1861,25 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1595,94 +1887,94 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1691,24 +1983,24 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
         <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -1717,102 +2009,102 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -1821,12 +2113,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>58</v>
@@ -1835,10 +2127,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -1847,12 +2139,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
@@ -1864,7 +2156,7 @@
         <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -1873,24 +2165,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
       </c>
       <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
         <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -1899,24 +2191,24 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -1925,24 +2217,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -1951,24 +2243,24 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -1977,7 +2269,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1991,19 +2283,19 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2011,25 +2303,25 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2037,25 +2329,25 @@
         <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2063,25 +2355,25 @@
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2089,25 +2381,25 @@
         <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2115,25 +2407,25 @@
         <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
         <v>21</v>
       </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2141,328 +2433,328 @@
         <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="F32" t="s">
-        <v>61</v>
-      </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
         <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
         <v>21</v>
       </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
         <v>21</v>
       </c>
-      <c r="E36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" t="s">
-        <v>30</v>
-      </c>
       <c r="G36" t="s">
         <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
         <v>21</v>
       </c>
-      <c r="E38" t="s">
-        <v>48</v>
-      </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
         <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
         <v>21</v>
       </c>
-      <c r="E40" t="s">
-        <v>56</v>
-      </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
         <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
@@ -2471,24 +2763,24 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
         <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
@@ -2497,24 +2789,24 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
         <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -2523,7 +2815,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2534,13 +2826,13 @@
         <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
@@ -2549,7 +2841,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2560,13 +2852,13 @@
         <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
         <v>13</v>
@@ -2575,7 +2867,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2586,13 +2878,13 @@
         <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
@@ -2601,7 +2893,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2612,13 +2904,13 @@
         <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
@@ -2627,7 +2919,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2638,13 +2930,13 @@
         <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
@@ -2653,7 +2945,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2664,13 +2956,13 @@
         <v>128</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
@@ -2679,7 +2971,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2690,13 +2982,13 @@
         <v>130</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s">
         <v>13</v>
@@ -2705,7 +2997,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2722,7 +3014,7 @@
         <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
@@ -2731,7 +3023,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2742,13 +3034,13 @@
         <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
@@ -2757,7 +3049,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2768,13 +3060,13 @@
         <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
@@ -2783,7 +3075,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2797,10 +3089,10 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G54" t="s">
         <v>13</v>
@@ -2809,7 +3101,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2820,13 +3112,13 @@
         <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s">
         <v>13</v>
@@ -2835,7 +3127,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2846,13 +3138,13 @@
         <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
@@ -2861,7 +3153,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2872,13 +3164,13 @@
         <v>145</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
         <v>13</v>
@@ -2887,7 +3179,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2901,10 +3193,10 @@
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
@@ -2913,7 +3205,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2924,13 +3216,13 @@
         <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
         <v>13</v>
@@ -2939,7 +3231,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2950,13 +3242,13 @@
         <v>152</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
@@ -2965,7 +3257,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2976,13 +3268,13 @@
         <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
@@ -2991,7 +3283,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3002,13 +3294,13 @@
         <v>156</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
@@ -3017,7 +3309,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3028,13 +3320,13 @@
         <v>158</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
@@ -3043,7 +3335,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3054,13 +3346,13 @@
         <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
         <v>13</v>
@@ -3069,7 +3361,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3080,13 +3372,13 @@
         <v>163</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
@@ -3095,7 +3387,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3106,13 +3398,13 @@
         <v>165</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
@@ -3121,7 +3413,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3132,13 +3424,13 @@
         <v>167</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
         <v>13</v>
@@ -3147,7 +3439,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3161,10 +3453,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G68" t="s">
         <v>13</v>
@@ -3173,7 +3465,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3187,10 +3479,10 @@
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G69" t="s">
         <v>13</v>
@@ -3199,7 +3491,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3210,13 +3502,13 @@
         <v>173</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G70" t="s">
         <v>13</v>
@@ -3225,7 +3517,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3236,13 +3528,13 @@
         <v>175</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s">
         <v>13</v>
@@ -3251,7 +3543,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3262,13 +3554,13 @@
         <v>178</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="G72" t="s">
         <v>13</v>
@@ -3277,7 +3569,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3291,10 +3583,10 @@
         <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
         <v>13</v>
@@ -3303,7 +3595,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3314,13 +3606,13 @@
         <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G74" t="s">
         <v>13</v>
@@ -3329,7 +3621,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3343,10 +3635,10 @@
         <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G75" t="s">
         <v>13</v>
@@ -3355,7 +3647,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3369,10 +3661,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G76" t="s">
         <v>13</v>
@@ -3381,7 +3673,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3392,13 +3684,13 @@
         <v>188</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>13</v>
@@ -3407,7 +3699,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3418,13 +3710,13 @@
         <v>190</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F78" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="G78" t="s">
         <v>13</v>
@@ -3433,7 +3725,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3447,10 +3739,10 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G79" t="s">
         <v>13</v>
@@ -3459,7 +3751,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3470,13 +3762,13 @@
         <v>195</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G80" t="s">
         <v>13</v>
@@ -3485,7 +3777,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3496,13 +3788,13 @@
         <v>197</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G81" t="s">
         <v>13</v>
@@ -3511,7 +3803,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3522,13 +3814,13 @@
         <v>199</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G82" t="s">
         <v>13</v>
@@ -3537,7 +3829,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3548,13 +3840,13 @@
         <v>201</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
         <v>13</v>
@@ -3563,7 +3855,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3577,10 +3869,10 @@
         <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F84" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
         <v>13</v>
@@ -3589,7 +3881,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3600,13 +3892,13 @@
         <v>205</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G85" t="s">
         <v>13</v>
@@ -3615,7 +3907,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3626,13 +3918,13 @@
         <v>208</v>
       </c>
       <c r="D86" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G86" t="s">
         <v>13</v>
@@ -3641,7 +3933,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3652,13 +3944,13 @@
         <v>210</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G87" t="s">
         <v>13</v>
@@ -3667,7 +3959,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3678,13 +3970,13 @@
         <v>212</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>13</v>
@@ -3693,7 +3985,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3704,13 +3996,13 @@
         <v>214</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>13</v>
@@ -3719,7 +4011,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3727,25 +4019,25 @@
         <v>207</v>
       </c>
       <c r="C90" t="s">
+        <v>205</v>
+      </c>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
         <v>216</v>
       </c>
-      <c r="D90" t="s">
-        <v>21</v>
-      </c>
-      <c r="E90" t="s">
-        <v>56</v>
-      </c>
-      <c r="F90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3753,25 +4045,25 @@
         <v>207</v>
       </c>
       <c r="C91" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" t="s">
+        <v>73</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
         <v>218</v>
       </c>
-      <c r="D91" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91" t="s">
-        <v>43</v>
-      </c>
-      <c r="F91" t="s">
-        <v>48</v>
-      </c>
-      <c r="G91" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3779,16 +4071,16 @@
         <v>207</v>
       </c>
       <c r="C92" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G92" t="s">
         <v>13</v>
@@ -3797,7 +4089,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3811,10 +4103,10 @@
         <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G93" t="s">
         <v>13</v>
@@ -3823,7 +4115,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3837,10 +4129,10 @@
         <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G94" t="s">
         <v>13</v>
@@ -3849,7 +4141,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3860,13 +4152,13 @@
         <v>226</v>
       </c>
       <c r="D95" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E95" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G95" t="s">
         <v>13</v>
@@ -3875,7 +4167,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3886,13 +4178,13 @@
         <v>228</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="G96" t="s">
         <v>13</v>
@@ -3901,7 +4193,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3912,13 +4204,13 @@
         <v>230</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E97" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G97" t="s">
         <v>13</v>
@@ -3927,7 +4219,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3935,25 +4227,25 @@
         <v>221</v>
       </c>
       <c r="C98" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="F98" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="G98" t="s">
         <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3961,117 +4253,117 @@
         <v>221</v>
       </c>
       <c r="C99" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G99" t="s">
         <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D100" t="s">
         <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G100" t="s">
         <v>13</v>
       </c>
       <c r="H100" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C101" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D101" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C102" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G102" t="s">
         <v>13</v>
       </c>
       <c r="H102" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" t="s">
         <v>21</v>
-      </c>
-      <c r="E103" t="s">
-        <v>11</v>
       </c>
       <c r="F103" t="s">
         <v>48</v>
@@ -4080,804 +4372,804 @@
         <v>13</v>
       </c>
       <c r="H103" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G104" t="s">
         <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C105" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="G105" t="s">
         <v>13</v>
       </c>
       <c r="H105" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C106" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E106" t="s">
         <v>25</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G106" t="s">
         <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C107" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G107" t="s">
         <v>13</v>
       </c>
       <c r="H107" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C108" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G108" t="s">
         <v>13</v>
       </c>
       <c r="H108" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C109" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D109" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
         <v>61</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="G109" t="s">
         <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C110" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G110" t="s">
         <v>13</v>
       </c>
       <c r="H110" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C111" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D111" t="s">
         <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F111" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
         <v>13</v>
       </c>
       <c r="H111" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C112" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G112" t="s">
         <v>13</v>
       </c>
       <c r="H112" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D113" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="G113" t="s">
         <v>13</v>
       </c>
       <c r="H113" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C114" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D114" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G114" t="s">
         <v>13</v>
       </c>
       <c r="H114" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C115" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F115" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="G115" t="s">
         <v>13</v>
       </c>
       <c r="H115" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C116" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D116" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="G116" t="s">
         <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C117" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G117" t="s">
         <v>13</v>
       </c>
       <c r="H117" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C118" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D118" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E118" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G118" t="s">
         <v>13</v>
       </c>
       <c r="H118" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G119" t="s">
         <v>13</v>
       </c>
       <c r="H119" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C120" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D120" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E120" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
         <v>13</v>
       </c>
       <c r="H120" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C121" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D121" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G121" t="s">
         <v>13</v>
       </c>
       <c r="H121" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C122" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G122" t="s">
         <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C123" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D123" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G123" t="s">
         <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C124" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E124" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" t="s">
         <v>12</v>
       </c>
-      <c r="F124" t="s">
-        <v>25</v>
-      </c>
       <c r="G124" t="s">
         <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C125" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E125" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="F125" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G125" t="s">
         <v>13</v>
       </c>
       <c r="H125" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C126" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D126" t="s">
         <v>16</v>
       </c>
       <c r="E126" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
         <v>13</v>
       </c>
       <c r="H126" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C127" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E127" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G127" t="s">
         <v>13</v>
       </c>
       <c r="H127" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C128" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D128" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F128" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="G128" t="s">
         <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C129" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D129" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G129" t="s">
         <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C130" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D130" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
         <v>13</v>
       </c>
       <c r="H130" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C131" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D131" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F131" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
         <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C132" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G132" t="s">
         <v>13</v>
       </c>
       <c r="H132" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C133" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D133" t="s">
         <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
         <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C134" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
@@ -4886,452 +5178,1650 @@
         <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C135" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F135" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="G135" t="s">
         <v>13</v>
       </c>
       <c r="H135" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C136" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E136" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G136" t="s">
         <v>13</v>
       </c>
       <c r="H136" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C137" t="s">
-        <v>40</v>
+        <v>316</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E137" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G137" t="s">
         <v>13</v>
       </c>
       <c r="H137" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C138" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D138" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F138" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G138" t="s">
         <v>13</v>
       </c>
       <c r="H138" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C139" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E139" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G139" t="s">
         <v>13</v>
       </c>
       <c r="H139" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C140" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G140" t="s">
         <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C141" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D141" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E141" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F141" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
         <v>13</v>
       </c>
       <c r="H141" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C142" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E142" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G142" t="s">
         <v>13</v>
       </c>
       <c r="H142" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C143" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D143" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E143" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F143" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
         <v>13</v>
       </c>
       <c r="H143" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C144" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D144" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G144" t="s">
         <v>13</v>
       </c>
       <c r="H144" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C145" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E145" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G145" t="s">
         <v>13</v>
       </c>
       <c r="H145" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C146" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G146" t="s">
         <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C147" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
         <v>13</v>
       </c>
       <c r="H147" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C148" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D148" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E148" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
         <v>13</v>
       </c>
       <c r="H148" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C149" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D149" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G149" t="s">
         <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C150" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D150" t="s">
         <v>16</v>
       </c>
       <c r="E150" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
         <v>13</v>
       </c>
       <c r="H150" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C151" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D151" t="s">
         <v>16</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F151" t="s">
+        <v>29</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>341</v>
+      </c>
+      <c r="C152" t="s">
+        <v>348</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" t="s">
+        <v>33</v>
+      </c>
+      <c r="F152" t="s">
+        <v>49</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>341</v>
+      </c>
+      <c r="C153" t="s">
+        <v>350</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" t="s">
+        <v>49</v>
+      </c>
+      <c r="F153" t="s">
+        <v>29</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>341</v>
+      </c>
+      <c r="C154" t="s">
+        <v>352</v>
+      </c>
+      <c r="D154" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154" t="s">
+        <v>24</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>341</v>
+      </c>
+      <c r="C155" t="s">
+        <v>354</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" t="s">
+        <v>39</v>
+      </c>
+      <c r="F155" t="s">
+        <v>33</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>356</v>
+      </c>
+      <c r="C156" t="s">
+        <v>357</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" t="s">
+        <v>24</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>356</v>
+      </c>
+      <c r="C157" t="s">
+        <v>359</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" t="s">
+        <v>61</v>
+      </c>
+      <c r="F157" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>356</v>
+      </c>
+      <c r="C158" t="s">
+        <v>361</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
+      <c r="H158" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>356</v>
+      </c>
+      <c r="C159" t="s">
+        <v>363</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" t="s">
+        <v>48</v>
+      </c>
+      <c r="F159" t="s">
+        <v>48</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>356</v>
+      </c>
+      <c r="C160" t="s">
+        <v>365</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" t="s">
+        <v>30</v>
+      </c>
+      <c r="F160" t="s">
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>356</v>
+      </c>
+      <c r="C161" t="s">
+        <v>367</v>
+      </c>
+      <c r="D161" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" t="s">
         <v>17</v>
       </c>
-      <c r="G151" t="s">
-        <v>13</v>
-      </c>
-      <c r="H151" t="s">
-        <v>345</v>
+      <c r="F161" t="s">
+        <v>39</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
+      <c r="H161" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>356</v>
+      </c>
+      <c r="C162" t="s">
+        <v>369</v>
+      </c>
+      <c r="D162" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" t="s">
+        <v>30</v>
+      </c>
+      <c r="F162" t="s">
+        <v>49</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>371</v>
+      </c>
+      <c r="C163" t="s">
+        <v>372</v>
+      </c>
+      <c r="D163" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" t="s">
+        <v>33</v>
+      </c>
+      <c r="F163" t="s">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>371</v>
+      </c>
+      <c r="C164" t="s">
+        <v>374</v>
+      </c>
+      <c r="D164" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>371</v>
+      </c>
+      <c r="C165" t="s">
+        <v>376</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" t="s">
+        <v>25</v>
+      </c>
+      <c r="F165" t="s">
+        <v>49</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>371</v>
+      </c>
+      <c r="C166" t="s">
+        <v>378</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" t="s">
+        <v>17</v>
+      </c>
+      <c r="F166" t="s">
+        <v>61</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>371</v>
+      </c>
+      <c r="C167" t="s">
+        <v>380</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" t="s">
+        <v>24</v>
+      </c>
+      <c r="F167" t="s">
+        <v>61</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>371</v>
+      </c>
+      <c r="C168" t="s">
+        <v>382</v>
+      </c>
+      <c r="D168" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" t="s">
+        <v>49</v>
+      </c>
+      <c r="F168" t="s">
+        <v>73</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>371</v>
+      </c>
+      <c r="C169" t="s">
+        <v>384</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" t="s">
+        <v>17</v>
+      </c>
+      <c r="F169" t="s">
+        <v>48</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>386</v>
+      </c>
+      <c r="C170" t="s">
+        <v>387</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" t="s">
+        <v>29</v>
+      </c>
+      <c r="F170" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>386</v>
+      </c>
+      <c r="C171" t="s">
+        <v>389</v>
+      </c>
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" t="s">
+        <v>24</v>
+      </c>
+      <c r="F171" t="s">
+        <v>39</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>386</v>
+      </c>
+      <c r="C172" t="s">
+        <v>391</v>
+      </c>
+      <c r="D172" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F172" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>386</v>
+      </c>
+      <c r="C173" t="s">
+        <v>393</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" t="s">
+        <v>29</v>
+      </c>
+      <c r="F173" t="s">
+        <v>29</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>386</v>
+      </c>
+      <c r="C174" t="s">
+        <v>395</v>
+      </c>
+      <c r="D174" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" t="s">
+        <v>29</v>
+      </c>
+      <c r="F174" t="s">
+        <v>61</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>386</v>
+      </c>
+      <c r="C175" t="s">
+        <v>397</v>
+      </c>
+      <c r="D175" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" t="s">
+        <v>33</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
+      <c r="H175" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>386</v>
+      </c>
+      <c r="C176" t="s">
+        <v>399</v>
+      </c>
+      <c r="D176" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" t="s">
+        <v>30</v>
+      </c>
+      <c r="F176" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
+      <c r="H176" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>401</v>
+      </c>
+      <c r="C177" t="s">
+        <v>402</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" t="s">
+        <v>21</v>
+      </c>
+      <c r="F177" t="s">
+        <v>61</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>401</v>
+      </c>
+      <c r="C178" t="s">
+        <v>404</v>
+      </c>
+      <c r="D178" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" t="s">
+        <v>73</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
+      <c r="H178" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>401</v>
+      </c>
+      <c r="C179" t="s">
+        <v>406</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" t="s">
+        <v>33</v>
+      </c>
+      <c r="F179" t="s">
+        <v>48</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>401</v>
+      </c>
+      <c r="C180" t="s">
+        <v>408</v>
+      </c>
+      <c r="D180" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180" t="s">
+        <v>30</v>
+      </c>
+      <c r="F180" t="s">
+        <v>24</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>401</v>
+      </c>
+      <c r="C181" t="s">
+        <v>410</v>
+      </c>
+      <c r="D181" t="s">
+        <v>16</v>
+      </c>
+      <c r="E181" t="s">
+        <v>18</v>
+      </c>
+      <c r="F181" t="s">
+        <v>17</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>401</v>
+      </c>
+      <c r="C182" t="s">
+        <v>412</v>
+      </c>
+      <c r="D182" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" t="s">
+        <v>29</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
+      <c r="H182" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>401</v>
+      </c>
+      <c r="C183" t="s">
+        <v>414</v>
+      </c>
+      <c r="D183" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183" t="s">
+        <v>17</v>
+      </c>
+      <c r="F183" t="s">
+        <v>33</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>416</v>
+      </c>
+      <c r="C184" t="s">
+        <v>417</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" t="s">
+        <v>33</v>
+      </c>
+      <c r="F184" t="s">
+        <v>73</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>416</v>
+      </c>
+      <c r="C185" t="s">
+        <v>419</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" t="s">
+        <v>17</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>416</v>
+      </c>
+      <c r="C186" t="s">
+        <v>421</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" t="s">
+        <v>39</v>
+      </c>
+      <c r="F186" t="s">
+        <v>29</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
+      <c r="H186" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>416</v>
+      </c>
+      <c r="C187" t="s">
+        <v>423</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" t="s">
+        <v>11</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>416</v>
+      </c>
+      <c r="C188" t="s">
+        <v>425</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" t="s">
+        <v>73</v>
+      </c>
+      <c r="F188" t="s">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
+      <c r="H188" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>416</v>
+      </c>
+      <c r="C189" t="s">
+        <v>427</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" t="s">
+        <v>29</v>
+      </c>
+      <c r="F189" t="s">
+        <v>11</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>416</v>
+      </c>
+      <c r="C190" t="s">
+        <v>429</v>
+      </c>
+      <c r="D190" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" t="s">
+        <v>25</v>
+      </c>
+      <c r="F190" t="s">
+        <v>39</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>431</v>
+      </c>
+      <c r="C191" t="s">
+        <v>432</v>
+      </c>
+      <c r="D191" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" t="s">
+        <v>29</v>
+      </c>
+      <c r="F191" t="s">
+        <v>18</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>431</v>
+      </c>
+      <c r="C192" t="s">
+        <v>434</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" t="s">
+        <v>21</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>431</v>
+      </c>
+      <c r="C193" t="s">
+        <v>436</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" t="s">
+        <v>49</v>
+      </c>
+      <c r="F193" t="s">
+        <v>17</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
+      <c r="H193" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>431</v>
+      </c>
+      <c r="C194" t="s">
+        <v>438</v>
+      </c>
+      <c r="D194" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" t="s">
+        <v>39</v>
+      </c>
+      <c r="F194" t="s">
+        <v>30</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
+      <c r="H194" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>431</v>
+      </c>
+      <c r="C195" t="s">
+        <v>440</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" t="s">
+        <v>18</v>
+      </c>
+      <c r="F195" t="s">
+        <v>24</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
+      <c r="H195" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>431</v>
+      </c>
+      <c r="C196" t="s">
+        <v>387</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" t="s">
+        <v>61</v>
+      </c>
+      <c r="F196" t="s">
+        <v>73</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
+      <c r="H196" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>431</v>
+      </c>
+      <c r="C197" t="s">
+        <v>443</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" t="s">
+        <v>73</v>
+      </c>
+      <c r="F197" t="s">
+        <v>24</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
+      <c r="H197" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
 </worksheet>
 </file>